--- a/BackTest/2020-01-16 BackTest PIVX.xlsx
+++ b/BackTest/2020-01-16 BackTest PIVX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M110"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -501,6 +507,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -544,6 +551,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -585,6 +593,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,6 +629,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -655,6 +665,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -696,6 +707,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -735,6 +747,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -776,6 +789,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -817,6 +831,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -858,6 +873,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -899,6 +915,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -938,6 +955,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -977,6 +995,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1016,6 +1035,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1055,6 +1075,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1094,6 +1115,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1133,6 +1155,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1172,6 +1195,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1211,6 +1235,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1252,6 +1277,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1291,6 +1317,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1330,6 +1357,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1369,6 +1397,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1408,6 +1437,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1447,6 +1477,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1486,6 +1517,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1525,6 +1557,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1566,6 +1599,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1605,6 +1639,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1644,6 +1679,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1685,6 +1721,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1726,6 +1763,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1767,6 +1805,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1808,6 +1847,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1849,6 +1889,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1890,6 +1931,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1931,6 +1973,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1972,6 +2015,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2011,6 +2055,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2052,6 +2097,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2093,6 +2139,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2134,6 +2181,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2175,6 +2223,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2214,6 +2263,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2253,6 +2303,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2292,6 +2343,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2331,6 +2383,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2370,6 +2423,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2409,6 +2463,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2448,6 +2503,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2487,6 +2543,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2526,6 +2583,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2565,6 +2623,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2604,6 +2663,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2643,6 +2703,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2682,6 +2743,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2721,6 +2783,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2760,6 +2823,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2799,6 +2863,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2838,6 +2903,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2877,6 +2943,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2916,6 +2983,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2955,6 +3023,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2994,6 +3063,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3033,6 +3103,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3072,6 +3143,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3111,6 +3183,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3150,6 +3223,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3189,6 +3263,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3228,6 +3303,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3267,6 +3343,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3306,6 +3383,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3345,6 +3423,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3384,6 +3463,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3423,6 +3503,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3462,6 +3543,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3501,6 +3583,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3540,6 +3623,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3579,6 +3663,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3618,6 +3703,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3645,17 +3731,18 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
+        <v>1.017018128005919</v>
       </c>
     </row>
     <row r="84">
@@ -3688,14 +3775,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3727,14 +3811,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3766,14 +3847,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3805,14 +3883,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3844,14 +3919,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3883,14 +3955,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3918,18 +3987,15 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3961,12 +4027,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4002,6 +4067,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4029,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -4037,6 +4103,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4064,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -4072,6 +4139,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4099,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -4107,6 +4175,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4134,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4142,6 +4211,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4177,6 +4247,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4212,6 +4283,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4247,6 +4319,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4282,6 +4355,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4317,6 +4391,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4352,6 +4427,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4387,6 +4463,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4422,6 +4499,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4457,6 +4535,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4492,6 +4571,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4519,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4527,6 +4607,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4554,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4562,6 +4643,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4589,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4597,6 +4679,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4624,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4632,6 +4715,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest PIVX.xlsx
+++ b/BackTest/2020-01-16 BackTest PIVX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:N139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>273</v>
+        <v>266.3</v>
       </c>
       <c r="C2" t="n">
-        <v>273</v>
+        <v>266.2</v>
       </c>
       <c r="D2" t="n">
-        <v>273</v>
+        <v>266.3</v>
       </c>
       <c r="E2" t="n">
-        <v>273</v>
+        <v>266.2</v>
       </c>
       <c r="F2" t="n">
-        <v>164.8476</v>
+        <v>4775.1719</v>
       </c>
       <c r="G2" t="n">
-        <v>-68671.77466967001</v>
+        <v>-32809.93519103</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>274.9</v>
+        <v>271.8</v>
       </c>
       <c r="C3" t="n">
-        <v>274.9</v>
+        <v>272</v>
       </c>
       <c r="D3" t="n">
-        <v>274.9</v>
+        <v>272</v>
       </c>
       <c r="E3" t="n">
-        <v>274.9</v>
+        <v>266.9</v>
       </c>
       <c r="F3" t="n">
-        <v>80</v>
+        <v>451.4119</v>
       </c>
       <c r="G3" t="n">
-        <v>-68591.77466967001</v>
+        <v>-32358.52329103</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>273</v>
+        <v>266.2</v>
       </c>
       <c r="K3" t="n">
-        <v>273</v>
+        <v>266.2</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
@@ -514,22 +514,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C4" t="n">
-        <v>273</v>
+        <v>272.5</v>
       </c>
       <c r="D4" t="n">
-        <v>273</v>
+        <v>272.5</v>
       </c>
       <c r="E4" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F4" t="n">
-        <v>299.549</v>
+        <v>177.719</v>
       </c>
       <c r="G4" t="n">
-        <v>-68891.32366967</v>
+        <v>-32180.80429103</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -538,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>274.9</v>
+        <v>272</v>
       </c>
       <c r="K4" t="n">
-        <v>273</v>
+        <v>266.2</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -558,32 +558,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C5" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D5" t="n">
-        <v>271</v>
+        <v>273.3</v>
       </c>
       <c r="E5" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F5" t="n">
-        <v>480.964</v>
+        <v>719.4385</v>
       </c>
       <c r="G5" t="n">
-        <v>-69372.28766967001</v>
+        <v>-31461.36579103</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>272.5</v>
+      </c>
       <c r="K5" t="n">
-        <v>273</v>
+        <v>266.2</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -600,32 +602,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C6" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D6" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E6" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F6" t="n">
-        <v>2899.1019</v>
+        <v>1607.3434</v>
       </c>
       <c r="G6" t="n">
-        <v>-69372.28766967001</v>
+        <v>-31461.36579103</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>273</v>
+      </c>
+      <c r="K6" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -636,32 +646,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>271</v>
+        <v>276.9</v>
       </c>
       <c r="C7" t="n">
-        <v>270.3</v>
+        <v>278</v>
       </c>
       <c r="D7" t="n">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E7" t="n">
-        <v>270.3</v>
+        <v>276.9</v>
       </c>
       <c r="F7" t="n">
-        <v>3950.2024</v>
+        <v>359.96692136</v>
       </c>
       <c r="G7" t="n">
-        <v>-73322.49006967001</v>
+        <v>-31101.39886967</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>273</v>
+      </c>
+      <c r="K7" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -672,36 +690,36 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>270.3</v>
+        <v>274</v>
       </c>
       <c r="C8" t="n">
-        <v>275.8</v>
+        <v>273</v>
       </c>
       <c r="D8" t="n">
-        <v>275.8</v>
+        <v>274</v>
       </c>
       <c r="E8" t="n">
-        <v>270.3</v>
+        <v>273</v>
       </c>
       <c r="F8" t="n">
-        <v>2312</v>
+        <v>2769.5537</v>
       </c>
       <c r="G8" t="n">
-        <v>-71010.49006967001</v>
+        <v>-33870.95256966999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>270.3</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -714,22 +732,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>273.1</v>
+        <v>276.9</v>
       </c>
       <c r="C9" t="n">
-        <v>273.1</v>
+        <v>277</v>
       </c>
       <c r="D9" t="n">
-        <v>273.1</v>
+        <v>277</v>
       </c>
       <c r="E9" t="n">
-        <v>273.1</v>
+        <v>276.9</v>
       </c>
       <c r="F9" t="n">
-        <v>16.9819</v>
+        <v>170</v>
       </c>
       <c r="G9" t="n">
-        <v>-71027.47196967</v>
+        <v>-33700.95256966999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -738,7 +756,9 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -754,33 +774,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>274.9</v>
+        <v>276.9</v>
       </c>
       <c r="C10" t="n">
-        <v>275.9</v>
+        <v>276.9</v>
       </c>
       <c r="D10" t="n">
-        <v>275.9</v>
+        <v>276.9</v>
       </c>
       <c r="E10" t="n">
-        <v>274.9</v>
+        <v>276.9</v>
       </c>
       <c r="F10" t="n">
-        <v>1569.4107</v>
+        <v>490</v>
       </c>
       <c r="G10" t="n">
-        <v>-69458.06126967001</v>
+        <v>-34190.95256966999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -796,33 +816,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>275.9</v>
+        <v>274</v>
       </c>
       <c r="C11" t="n">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D11" t="n">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E11" t="n">
-        <v>275.9</v>
+        <v>274</v>
       </c>
       <c r="F11" t="n">
-        <v>3654.7897</v>
+        <v>115</v>
       </c>
       <c r="G11" t="n">
-        <v>-65803.27156967002</v>
+        <v>-34305.95256966999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>275.9</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -838,33 +858,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C12" t="n">
-        <v>278.9</v>
+        <v>272.5</v>
       </c>
       <c r="D12" t="n">
-        <v>278.9</v>
+        <v>274</v>
       </c>
       <c r="E12" t="n">
-        <v>276</v>
+        <v>272.5</v>
       </c>
       <c r="F12" t="n">
-        <v>17206.7446</v>
+        <v>2166.5857</v>
       </c>
       <c r="G12" t="n">
-        <v>-48596.52696967001</v>
+        <v>-36472.53826967</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>276</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -880,33 +900,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>278.9</v>
+        <v>272.5</v>
       </c>
       <c r="C13" t="n">
-        <v>278.9</v>
+        <v>270.1</v>
       </c>
       <c r="D13" t="n">
-        <v>278.9</v>
+        <v>272.5</v>
       </c>
       <c r="E13" t="n">
-        <v>278.9</v>
+        <v>270.1</v>
       </c>
       <c r="F13" t="n">
-        <v>80.7505</v>
+        <v>8735.8269</v>
       </c>
       <c r="G13" t="n">
-        <v>-48596.52696967001</v>
+        <v>-45208.36516967</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>278.9</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -922,31 +942,35 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>278.9</v>
+        <v>271</v>
       </c>
       <c r="C14" t="n">
-        <v>278.9</v>
+        <v>270</v>
       </c>
       <c r="D14" t="n">
-        <v>278.9</v>
+        <v>271</v>
       </c>
       <c r="E14" t="n">
-        <v>278.9</v>
+        <v>270</v>
       </c>
       <c r="F14" t="n">
-        <v>728.7728</v>
+        <v>6761.0055</v>
       </c>
       <c r="G14" t="n">
-        <v>-48596.52696967001</v>
+        <v>-51969.37066967</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -962,31 +986,35 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>278.9</v>
+        <v>270</v>
       </c>
       <c r="C15" t="n">
-        <v>278.9</v>
+        <v>266.2</v>
       </c>
       <c r="D15" t="n">
-        <v>278.9</v>
+        <v>270</v>
       </c>
       <c r="E15" t="n">
-        <v>278.9</v>
+        <v>266.2</v>
       </c>
       <c r="F15" t="n">
-        <v>50</v>
+        <v>4486.8999</v>
       </c>
       <c r="G15" t="n">
-        <v>-48596.52696967001</v>
+        <v>-56456.27056967</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>270</v>
+      </c>
+      <c r="K15" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1002,31 +1030,35 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>278.9</v>
+        <v>267</v>
       </c>
       <c r="C16" t="n">
-        <v>278.9</v>
+        <v>272.9</v>
       </c>
       <c r="D16" t="n">
-        <v>278.9</v>
+        <v>272.9</v>
       </c>
       <c r="E16" t="n">
-        <v>278.9</v>
+        <v>267</v>
       </c>
       <c r="F16" t="n">
-        <v>100</v>
+        <v>883.7319</v>
       </c>
       <c r="G16" t="n">
-        <v>-48596.52696967001</v>
+        <v>-55572.53866967</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1042,31 +1074,35 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>279.9</v>
+        <v>266.2</v>
       </c>
       <c r="C17" t="n">
-        <v>279.9</v>
+        <v>266.2</v>
       </c>
       <c r="D17" t="n">
-        <v>279.9</v>
+        <v>266.2</v>
       </c>
       <c r="E17" t="n">
-        <v>279.9</v>
+        <v>266.2</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>2162.498</v>
       </c>
       <c r="G17" t="n">
-        <v>-48594.52696967001</v>
+        <v>-57735.03666967</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>272.9</v>
+      </c>
+      <c r="K17" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1082,31 +1118,35 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>278</v>
+        <v>271.9</v>
       </c>
       <c r="C18" t="n">
-        <v>277</v>
+        <v>271.9</v>
       </c>
       <c r="D18" t="n">
-        <v>278</v>
+        <v>271.9</v>
       </c>
       <c r="E18" t="n">
-        <v>277</v>
+        <v>271.9</v>
       </c>
       <c r="F18" t="n">
-        <v>200</v>
+        <v>151.186</v>
       </c>
       <c r="G18" t="n">
-        <v>-48794.52696967001</v>
+        <v>-57583.85066967</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1122,31 +1162,35 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C19" t="n">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D19" t="n">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E19" t="n">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F19" t="n">
-        <v>214.1699</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>-48794.52696967001</v>
+        <v>-57581.85066967</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>271.9</v>
+      </c>
+      <c r="K19" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1162,31 +1206,35 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>277</v>
+        <v>266.2</v>
       </c>
       <c r="C20" t="n">
-        <v>277</v>
+        <v>266.2</v>
       </c>
       <c r="D20" t="n">
-        <v>277</v>
+        <v>266.2</v>
       </c>
       <c r="E20" t="n">
-        <v>277</v>
+        <v>266.2</v>
       </c>
       <c r="F20" t="n">
-        <v>1012.0943</v>
+        <v>549.97</v>
       </c>
       <c r="G20" t="n">
-        <v>-48794.52696967001</v>
+        <v>-58131.82066967</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>273</v>
+      </c>
+      <c r="K20" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1202,31 +1250,35 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>277</v>
+        <v>266.2</v>
       </c>
       <c r="C21" t="n">
-        <v>278.9</v>
+        <v>272.9</v>
       </c>
       <c r="D21" t="n">
-        <v>278.9</v>
+        <v>272.9</v>
       </c>
       <c r="E21" t="n">
-        <v>277</v>
+        <v>266.2</v>
       </c>
       <c r="F21" t="n">
-        <v>5.9769</v>
+        <v>2443.7142</v>
       </c>
       <c r="G21" t="n">
-        <v>-48788.55006967001</v>
+        <v>-55688.10646967</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1242,22 +1294,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>277</v>
+        <v>266.4</v>
       </c>
       <c r="C22" t="n">
-        <v>277</v>
+        <v>266.4</v>
       </c>
       <c r="D22" t="n">
-        <v>277</v>
+        <v>266.4</v>
       </c>
       <c r="E22" t="n">
-        <v>277</v>
+        <v>266.4</v>
       </c>
       <c r="F22" t="n">
-        <v>20</v>
+        <v>5490.9126</v>
       </c>
       <c r="G22" t="n">
-        <v>-48808.55006967001</v>
+        <v>-61179.01906967</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1266,9 +1318,11 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>278.9</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
+        <v>272.9</v>
+      </c>
+      <c r="K22" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1284,31 +1338,35 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C23" t="n">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D23" t="n">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E23" t="n">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F23" t="n">
-        <v>233.9999</v>
+        <v>110.3265</v>
       </c>
       <c r="G23" t="n">
-        <v>-48808.55006967001</v>
+        <v>-61068.69256967</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1324,31 +1382,35 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C24" t="n">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D24" t="n">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E24" t="n">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F24" t="n">
-        <v>22.5412</v>
+        <v>1194.964</v>
       </c>
       <c r="G24" t="n">
-        <v>-48808.55006967001</v>
+        <v>-59873.72856967</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>272</v>
+      </c>
+      <c r="K24" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1364,31 +1426,35 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C25" t="n">
-        <v>275.9</v>
+        <v>275</v>
       </c>
       <c r="D25" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E25" t="n">
-        <v>275.9</v>
+        <v>275</v>
       </c>
       <c r="F25" t="n">
-        <v>132</v>
+        <v>700</v>
       </c>
       <c r="G25" t="n">
-        <v>-48940.55006967001</v>
+        <v>-59873.72856967</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>275</v>
+      </c>
+      <c r="K25" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1404,31 +1470,35 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>274.9</v>
+        <v>275</v>
       </c>
       <c r="C26" t="n">
-        <v>274.9</v>
+        <v>275</v>
       </c>
       <c r="D26" t="n">
-        <v>274.9</v>
+        <v>275</v>
       </c>
       <c r="E26" t="n">
-        <v>274.9</v>
+        <v>275</v>
       </c>
       <c r="F26" t="n">
-        <v>400</v>
+        <v>106</v>
       </c>
       <c r="G26" t="n">
-        <v>-49340.55006967001</v>
+        <v>-59873.72856967</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>275</v>
+      </c>
+      <c r="K26" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1444,31 +1514,35 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>274.9</v>
+        <v>274</v>
       </c>
       <c r="C27" t="n">
-        <v>274.9</v>
+        <v>270</v>
       </c>
       <c r="D27" t="n">
-        <v>274.9</v>
+        <v>274</v>
       </c>
       <c r="E27" t="n">
-        <v>274.9</v>
+        <v>270</v>
       </c>
       <c r="F27" t="n">
-        <v>3126.8136</v>
+        <v>10056.7404</v>
       </c>
       <c r="G27" t="n">
-        <v>-49340.55006967001</v>
+        <v>-69930.46896966999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>275</v>
+      </c>
+      <c r="K27" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1484,31 +1558,35 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C28" t="n">
-        <v>273.5</v>
+        <v>274.8</v>
       </c>
       <c r="D28" t="n">
-        <v>274</v>
+        <v>274.8</v>
       </c>
       <c r="E28" t="n">
-        <v>273.5</v>
+        <v>270.1</v>
       </c>
       <c r="F28" t="n">
-        <v>1000</v>
+        <v>1165.8467</v>
       </c>
       <c r="G28" t="n">
-        <v>-50340.55006967001</v>
+        <v>-68764.62226967</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>270</v>
+      </c>
+      <c r="K28" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1524,31 +1602,35 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>275</v>
+        <v>270.1</v>
       </c>
       <c r="C29" t="n">
-        <v>274</v>
+        <v>270.1</v>
       </c>
       <c r="D29" t="n">
-        <v>275</v>
+        <v>270.1</v>
       </c>
       <c r="E29" t="n">
-        <v>274</v>
+        <v>270.1</v>
       </c>
       <c r="F29" t="n">
-        <v>1000</v>
+        <v>74</v>
       </c>
       <c r="G29" t="n">
-        <v>-49340.55006967001</v>
+        <v>-68838.62226967</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>274.8</v>
+      </c>
+      <c r="K29" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1564,22 +1646,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>274.1</v>
+        <v>272</v>
       </c>
       <c r="C30" t="n">
-        <v>274.1</v>
+        <v>272</v>
       </c>
       <c r="D30" t="n">
-        <v>274.1</v>
+        <v>272</v>
       </c>
       <c r="E30" t="n">
-        <v>274.1</v>
+        <v>272</v>
       </c>
       <c r="F30" t="n">
-        <v>396.2654</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>-48944.28466967001</v>
+        <v>-68836.62226967</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -1588,9 +1670,11 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>274</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
+        <v>270.1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1606,31 +1690,35 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>274.1</v>
+        <v>273</v>
       </c>
       <c r="C31" t="n">
-        <v>272.1</v>
+        <v>273</v>
       </c>
       <c r="D31" t="n">
-        <v>274.1</v>
+        <v>273</v>
       </c>
       <c r="E31" t="n">
-        <v>272.1</v>
+        <v>273</v>
       </c>
       <c r="F31" t="n">
-        <v>1810</v>
+        <v>164.8476</v>
       </c>
       <c r="G31" t="n">
-        <v>-50754.28466967001</v>
+        <v>-68671.77466967001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>272</v>
+      </c>
+      <c r="K31" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1646,31 +1734,35 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>276</v>
+        <v>274.9</v>
       </c>
       <c r="C32" t="n">
-        <v>276</v>
+        <v>274.9</v>
       </c>
       <c r="D32" t="n">
-        <v>276</v>
+        <v>274.9</v>
       </c>
       <c r="E32" t="n">
-        <v>276</v>
+        <v>274.9</v>
       </c>
       <c r="F32" t="n">
-        <v>3614.153</v>
+        <v>80</v>
       </c>
       <c r="G32" t="n">
-        <v>-47140.13166967002</v>
+        <v>-68591.77466967001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>273</v>
+      </c>
+      <c r="K32" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1686,22 +1778,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>276.8</v>
+        <v>273</v>
       </c>
       <c r="C33" t="n">
-        <v>276.9</v>
+        <v>273</v>
       </c>
       <c r="D33" t="n">
-        <v>276.9</v>
+        <v>273</v>
       </c>
       <c r="E33" t="n">
-        <v>276.8</v>
+        <v>273</v>
       </c>
       <c r="F33" t="n">
-        <v>4000</v>
+        <v>299.549</v>
       </c>
       <c r="G33" t="n">
-        <v>-43140.13166967002</v>
+        <v>-68891.32366967</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -1710,9 +1802,11 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>276</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
+        <v>274.9</v>
+      </c>
+      <c r="K33" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1728,22 +1822,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>277.8</v>
+        <v>271</v>
       </c>
       <c r="C34" t="n">
-        <v>277.8</v>
+        <v>271</v>
       </c>
       <c r="D34" t="n">
-        <v>277.8</v>
+        <v>271</v>
       </c>
       <c r="E34" t="n">
-        <v>277.8</v>
+        <v>271</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>480.964</v>
       </c>
       <c r="G34" t="n">
-        <v>-43138.13166967002</v>
+        <v>-69372.28766967001</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -1752,9 +1846,11 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>276.9</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
+        <v>273</v>
+      </c>
+      <c r="K34" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1770,22 +1866,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C35" t="n">
-        <v>272.1</v>
+        <v>271</v>
       </c>
       <c r="D35" t="n">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E35" t="n">
-        <v>272.1</v>
+        <v>271</v>
       </c>
       <c r="F35" t="n">
-        <v>3360</v>
+        <v>2899.1019</v>
       </c>
       <c r="G35" t="n">
-        <v>-46498.13166967002</v>
+        <v>-69372.28766967001</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -1794,9 +1890,11 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>277.8</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
+        <v>271</v>
+      </c>
+      <c r="K35" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1812,22 +1910,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C36" t="n">
-        <v>274</v>
+        <v>270.3</v>
       </c>
       <c r="D36" t="n">
         <v>274</v>
       </c>
       <c r="E36" t="n">
-        <v>274</v>
+        <v>270.3</v>
       </c>
       <c r="F36" t="n">
-        <v>72</v>
+        <v>3950.2024</v>
       </c>
       <c r="G36" t="n">
-        <v>-46426.13166967002</v>
+        <v>-73322.49006967001</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -1836,9 +1934,11 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>272.1</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
+        <v>271</v>
+      </c>
+      <c r="K36" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1854,22 +1954,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>273</v>
+        <v>270.3</v>
       </c>
       <c r="C37" t="n">
-        <v>273</v>
+        <v>275.8</v>
       </c>
       <c r="D37" t="n">
-        <v>273</v>
+        <v>275.8</v>
       </c>
       <c r="E37" t="n">
-        <v>273</v>
+        <v>270.3</v>
       </c>
       <c r="F37" t="n">
-        <v>143.3879</v>
+        <v>2312</v>
       </c>
       <c r="G37" t="n">
-        <v>-46569.51956967002</v>
+        <v>-71010.49006967001</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -1878,9 +1978,11 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>274</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
+        <v>270.3</v>
+      </c>
+      <c r="K37" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1896,22 +1998,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>272.1</v>
+        <v>273.1</v>
       </c>
       <c r="C38" t="n">
-        <v>272.1</v>
+        <v>273.1</v>
       </c>
       <c r="D38" t="n">
-        <v>272.1</v>
+        <v>273.1</v>
       </c>
       <c r="E38" t="n">
-        <v>272.1</v>
+        <v>273.1</v>
       </c>
       <c r="F38" t="n">
-        <v>1073.16</v>
+        <v>16.9819</v>
       </c>
       <c r="G38" t="n">
-        <v>-47642.67956967002</v>
+        <v>-71027.47196967</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -1920,9 +2022,11 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>273</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
+        <v>275.8</v>
+      </c>
+      <c r="K38" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1938,22 +2042,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>274.9</v>
+      </c>
+      <c r="C39" t="n">
         <v>275.9</v>
-      </c>
-      <c r="C39" t="n">
-        <v>272.1</v>
       </c>
       <c r="D39" t="n">
         <v>275.9</v>
       </c>
       <c r="E39" t="n">
-        <v>272.1</v>
+        <v>274.9</v>
       </c>
       <c r="F39" t="n">
-        <v>3715.463</v>
+        <v>1569.4107</v>
       </c>
       <c r="G39" t="n">
-        <v>-47642.67956967002</v>
+        <v>-69458.06126967001</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -1962,9 +2066,11 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>272.1</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
+        <v>273.1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1980,22 +2086,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>276.9</v>
+        <v>275.9</v>
       </c>
       <c r="C40" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D40" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E40" t="n">
-        <v>276.9</v>
+        <v>275.9</v>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>3654.7897</v>
       </c>
       <c r="G40" t="n">
-        <v>-47632.67956967002</v>
+        <v>-65803.27156967002</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -2004,9 +2110,11 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>272.1</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
+        <v>275.9</v>
+      </c>
+      <c r="K40" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2022,22 +2130,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>273.9</v>
+        <v>276</v>
       </c>
       <c r="C41" t="n">
-        <v>272.1</v>
+        <v>278.9</v>
       </c>
       <c r="D41" t="n">
-        <v>273.9</v>
+        <v>278.9</v>
       </c>
       <c r="E41" t="n">
-        <v>272.1</v>
+        <v>276</v>
       </c>
       <c r="F41" t="n">
-        <v>377.2</v>
+        <v>17206.7446</v>
       </c>
       <c r="G41" t="n">
-        <v>-48009.87956967002</v>
+        <v>-48596.52696967001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2046,7 +2154,9 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2062,33 +2172,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>276.9</v>
+        <v>278.9</v>
       </c>
       <c r="C42" t="n">
-        <v>277.7</v>
+        <v>278.9</v>
       </c>
       <c r="D42" t="n">
-        <v>277.7</v>
+        <v>278.9</v>
       </c>
       <c r="E42" t="n">
-        <v>276.9</v>
+        <v>278.9</v>
       </c>
       <c r="F42" t="n">
-        <v>93.8721</v>
+        <v>80.7505</v>
       </c>
       <c r="G42" t="n">
-        <v>-47916.00746967002</v>
+        <v>-48596.52696967001</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>272.1</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2104,33 +2214,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>277.7</v>
+        <v>278.9</v>
       </c>
       <c r="C43" t="n">
-        <v>277.7</v>
+        <v>278.9</v>
       </c>
       <c r="D43" t="n">
-        <v>277.7</v>
+        <v>278.9</v>
       </c>
       <c r="E43" t="n">
-        <v>277.7</v>
+        <v>278.9</v>
       </c>
       <c r="F43" t="n">
-        <v>85.9359</v>
+        <v>728.7728</v>
       </c>
       <c r="G43" t="n">
-        <v>-47916.00746967002</v>
+        <v>-48596.52696967001</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>277.7</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2146,33 +2256,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>277.8</v>
+        <v>278.9</v>
       </c>
       <c r="C44" t="n">
-        <v>277.8</v>
+        <v>278.9</v>
       </c>
       <c r="D44" t="n">
-        <v>277.8</v>
+        <v>278.9</v>
       </c>
       <c r="E44" t="n">
-        <v>277.8</v>
+        <v>278.9</v>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G44" t="n">
-        <v>-47906.00746967002</v>
+        <v>-48596.52696967001</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>277.7</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2188,33 +2298,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>277</v>
+        <v>278.9</v>
       </c>
       <c r="C45" t="n">
-        <v>277</v>
+        <v>278.9</v>
       </c>
       <c r="D45" t="n">
-        <v>277</v>
+        <v>278.9</v>
       </c>
       <c r="E45" t="n">
-        <v>277</v>
+        <v>278.9</v>
       </c>
       <c r="F45" t="n">
-        <v>408.9999</v>
+        <v>100</v>
       </c>
       <c r="G45" t="n">
-        <v>-48315.00736967002</v>
+        <v>-48596.52696967001</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>277.8</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2230,22 +2340,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>277.8</v>
+        <v>279.9</v>
       </c>
       <c r="C46" t="n">
-        <v>277.8</v>
+        <v>279.9</v>
       </c>
       <c r="D46" t="n">
-        <v>277.8</v>
+        <v>279.9</v>
       </c>
       <c r="E46" t="n">
-        <v>277.8</v>
+        <v>279.9</v>
       </c>
       <c r="F46" t="n">
-        <v>465.1229</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>-47849.88446967002</v>
+        <v>-48594.52696967001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2254,7 +2364,9 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2270,22 +2382,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>277.8</v>
+        <v>278</v>
       </c>
       <c r="C47" t="n">
-        <v>278.7</v>
+        <v>277</v>
       </c>
       <c r="D47" t="n">
-        <v>278.7</v>
+        <v>278</v>
       </c>
       <c r="E47" t="n">
-        <v>277.8</v>
+        <v>277</v>
       </c>
       <c r="F47" t="n">
-        <v>3629.1464</v>
+        <v>200</v>
       </c>
       <c r="G47" t="n">
-        <v>-44220.73806967002</v>
+        <v>-48794.52696967001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2294,7 +2406,9 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2310,22 +2424,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C48" t="n">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D48" t="n">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E48" t="n">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F48" t="n">
-        <v>136.367</v>
+        <v>214.1699</v>
       </c>
       <c r="G48" t="n">
-        <v>-44084.37106967002</v>
+        <v>-48794.52696967001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2334,7 +2448,9 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2350,22 +2466,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C49" t="n">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D49" t="n">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E49" t="n">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F49" t="n">
-        <v>7695.9036</v>
+        <v>1012.0943</v>
       </c>
       <c r="G49" t="n">
-        <v>-36388.46746967002</v>
+        <v>-48794.52696967001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2374,7 +2490,9 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2390,22 +2508,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C50" t="n">
-        <v>284</v>
+        <v>278.9</v>
       </c>
       <c r="D50" t="n">
-        <v>284</v>
+        <v>278.9</v>
       </c>
       <c r="E50" t="n">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F50" t="n">
-        <v>687</v>
+        <v>5.9769</v>
       </c>
       <c r="G50" t="n">
-        <v>-35701.46746967002</v>
+        <v>-48788.55006967001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2414,7 +2532,9 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2430,22 +2550,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C51" t="n">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D51" t="n">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E51" t="n">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F51" t="n">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G51" t="n">
-        <v>-35748.46746967002</v>
+        <v>-48808.55006967001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2454,7 +2574,9 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2470,22 +2592,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C52" t="n">
-        <v>285.4</v>
+        <v>277</v>
       </c>
       <c r="D52" t="n">
-        <v>285.4</v>
+        <v>277</v>
       </c>
       <c r="E52" t="n">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F52" t="n">
-        <v>360</v>
+        <v>233.9999</v>
       </c>
       <c r="G52" t="n">
-        <v>-35388.46746967002</v>
+        <v>-48808.55006967001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2494,7 +2616,9 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2510,22 +2634,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C53" t="n">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D53" t="n">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="E53" t="n">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>22.5412</v>
       </c>
       <c r="G53" t="n">
-        <v>-35386.46746967002</v>
+        <v>-48808.55006967001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2534,7 +2658,9 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2550,22 +2676,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C54" t="n">
-        <v>283</v>
+        <v>275.9</v>
       </c>
       <c r="D54" t="n">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E54" t="n">
-        <v>283</v>
+        <v>275.9</v>
       </c>
       <c r="F54" t="n">
-        <v>1504.7151</v>
+        <v>132</v>
       </c>
       <c r="G54" t="n">
-        <v>-36891.18256967003</v>
+        <v>-48940.55006967001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2574,7 +2700,9 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2590,22 +2718,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>281.1</v>
+        <v>274.9</v>
       </c>
       <c r="C55" t="n">
-        <v>281.1</v>
+        <v>274.9</v>
       </c>
       <c r="D55" t="n">
-        <v>281.1</v>
+        <v>274.9</v>
       </c>
       <c r="E55" t="n">
-        <v>281.1</v>
+        <v>274.9</v>
       </c>
       <c r="F55" t="n">
-        <v>1768.7468</v>
+        <v>400</v>
       </c>
       <c r="G55" t="n">
-        <v>-38659.92936967003</v>
+        <v>-49340.55006967001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2614,7 +2742,9 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2630,22 +2760,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>283</v>
+        <v>274.9</v>
       </c>
       <c r="C56" t="n">
-        <v>283</v>
+        <v>274.9</v>
       </c>
       <c r="D56" t="n">
-        <v>283</v>
+        <v>274.9</v>
       </c>
       <c r="E56" t="n">
-        <v>283</v>
+        <v>274.9</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>3126.8136</v>
       </c>
       <c r="G56" t="n">
-        <v>-38657.92936967003</v>
+        <v>-49340.55006967001</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2654,7 +2784,9 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2670,22 +2802,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>280.2</v>
+        <v>274</v>
       </c>
       <c r="C57" t="n">
-        <v>279</v>
+        <v>273.5</v>
       </c>
       <c r="D57" t="n">
-        <v>280.2</v>
+        <v>274</v>
       </c>
       <c r="E57" t="n">
-        <v>279</v>
+        <v>273.5</v>
       </c>
       <c r="F57" t="n">
-        <v>6937.2688</v>
+        <v>1000</v>
       </c>
       <c r="G57" t="n">
-        <v>-45595.19816967002</v>
+        <v>-50340.55006967001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2694,7 +2826,9 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2710,22 +2844,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>280.1</v>
+        <v>275</v>
       </c>
       <c r="C58" t="n">
-        <v>283.9</v>
+        <v>274</v>
       </c>
       <c r="D58" t="n">
-        <v>283.9</v>
+        <v>275</v>
       </c>
       <c r="E58" t="n">
-        <v>280.1</v>
+        <v>274</v>
       </c>
       <c r="F58" t="n">
-        <v>102.403</v>
+        <v>1000</v>
       </c>
       <c r="G58" t="n">
-        <v>-45492.79516967003</v>
+        <v>-49340.55006967001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2734,7 +2868,9 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2750,22 +2886,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>281</v>
+        <v>274.1</v>
       </c>
       <c r="C59" t="n">
-        <v>281</v>
+        <v>274.1</v>
       </c>
       <c r="D59" t="n">
-        <v>281</v>
+        <v>274.1</v>
       </c>
       <c r="E59" t="n">
-        <v>281</v>
+        <v>274.1</v>
       </c>
       <c r="F59" t="n">
-        <v>109.3963</v>
+        <v>396.2654</v>
       </c>
       <c r="G59" t="n">
-        <v>-45602.19146967003</v>
+        <v>-48944.28466967001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2774,7 +2910,9 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2790,22 +2928,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>281.8</v>
+        <v>274.1</v>
       </c>
       <c r="C60" t="n">
-        <v>281.8</v>
+        <v>272.1</v>
       </c>
       <c r="D60" t="n">
-        <v>281.8</v>
+        <v>274.1</v>
       </c>
       <c r="E60" t="n">
-        <v>281.8</v>
+        <v>272.1</v>
       </c>
       <c r="F60" t="n">
-        <v>1415.9066</v>
+        <v>1810</v>
       </c>
       <c r="G60" t="n">
-        <v>-44186.28486967002</v>
+        <v>-50754.28466967001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2814,7 +2952,9 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2830,22 +2970,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C61" t="n">
-        <v>277.1</v>
+        <v>276</v>
       </c>
       <c r="D61" t="n">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E61" t="n">
-        <v>277.1</v>
+        <v>276</v>
       </c>
       <c r="F61" t="n">
-        <v>1800</v>
+        <v>3614.153</v>
       </c>
       <c r="G61" t="n">
-        <v>-45986.28486967002</v>
+        <v>-47140.13166967002</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2854,7 +2994,9 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2870,22 +3012,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>277.2</v>
+        <v>276.8</v>
       </c>
       <c r="C62" t="n">
-        <v>277.2</v>
+        <v>276.9</v>
       </c>
       <c r="D62" t="n">
-        <v>277.2</v>
+        <v>276.9</v>
       </c>
       <c r="E62" t="n">
-        <v>277.2</v>
+        <v>276.8</v>
       </c>
       <c r="F62" t="n">
-        <v>444.1485</v>
+        <v>4000</v>
       </c>
       <c r="G62" t="n">
-        <v>-45542.13636967002</v>
+        <v>-43140.13166967002</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2894,7 +3036,9 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2910,22 +3054,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>282</v>
+        <v>277.8</v>
       </c>
       <c r="C63" t="n">
-        <v>282</v>
+        <v>277.8</v>
       </c>
       <c r="D63" t="n">
-        <v>282</v>
+        <v>277.8</v>
       </c>
       <c r="E63" t="n">
-        <v>282</v>
+        <v>277.8</v>
       </c>
       <c r="F63" t="n">
         <v>2</v>
       </c>
       <c r="G63" t="n">
-        <v>-45540.13636967002</v>
+        <v>-43138.13166967002</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2934,7 +3078,9 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2950,22 +3096,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>282.9</v>
+        <v>275</v>
       </c>
       <c r="C64" t="n">
-        <v>282.9</v>
+        <v>272.1</v>
       </c>
       <c r="D64" t="n">
-        <v>282.9</v>
+        <v>275</v>
       </c>
       <c r="E64" t="n">
-        <v>282.9</v>
+        <v>272.1</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>3360</v>
       </c>
       <c r="G64" t="n">
-        <v>-45538.13636967002</v>
+        <v>-46498.13166967002</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2974,7 +3120,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2990,22 +3138,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>282.9</v>
+        <v>274</v>
       </c>
       <c r="C65" t="n">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D65" t="n">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E65" t="n">
-        <v>282.9</v>
+        <v>274</v>
       </c>
       <c r="F65" t="n">
-        <v>184.1749</v>
+        <v>72</v>
       </c>
       <c r="G65" t="n">
-        <v>-45353.96146967002</v>
+        <v>-46426.13166967002</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3014,7 +3162,9 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3030,22 +3180,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C66" t="n">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D66" t="n">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E66" t="n">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="F66" t="n">
-        <v>146.1283</v>
+        <v>143.3879</v>
       </c>
       <c r="G66" t="n">
-        <v>-45353.96146967002</v>
+        <v>-46569.51956967002</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3054,7 +3204,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3070,22 +3222,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>282.9</v>
+        <v>272.1</v>
       </c>
       <c r="C67" t="n">
-        <v>280.1</v>
+        <v>272.1</v>
       </c>
       <c r="D67" t="n">
-        <v>282.9</v>
+        <v>272.1</v>
       </c>
       <c r="E67" t="n">
-        <v>280.1</v>
+        <v>272.1</v>
       </c>
       <c r="F67" t="n">
-        <v>726.7728</v>
+        <v>1073.16</v>
       </c>
       <c r="G67" t="n">
-        <v>-46080.73426967002</v>
+        <v>-47642.67956967002</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3094,7 +3246,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3110,22 +3264,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>281</v>
+        <v>275.9</v>
       </c>
       <c r="C68" t="n">
-        <v>285.4</v>
+        <v>272.1</v>
       </c>
       <c r="D68" t="n">
-        <v>285.4</v>
+        <v>275.9</v>
       </c>
       <c r="E68" t="n">
-        <v>280</v>
+        <v>272.1</v>
       </c>
       <c r="F68" t="n">
-        <v>7443.3366</v>
+        <v>3715.463</v>
       </c>
       <c r="G68" t="n">
-        <v>-38637.39766967002</v>
+        <v>-47642.67956967002</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3134,7 +3288,9 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3150,22 +3306,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>285.3</v>
+        <v>276.9</v>
       </c>
       <c r="C69" t="n">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="D69" t="n">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="E69" t="n">
-        <v>285.3</v>
+        <v>276.9</v>
       </c>
       <c r="F69" t="n">
-        <v>12814.2797</v>
+        <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>-25823.11796967002</v>
+        <v>-47632.67956967002</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3174,7 +3330,9 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3190,22 +3348,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>292</v>
+        <v>273.9</v>
       </c>
       <c r="C70" t="n">
-        <v>294.5</v>
+        <v>272.1</v>
       </c>
       <c r="D70" t="n">
-        <v>294.5</v>
+        <v>273.9</v>
       </c>
       <c r="E70" t="n">
-        <v>292</v>
+        <v>272.1</v>
       </c>
       <c r="F70" t="n">
-        <v>4100.1337</v>
+        <v>377.2</v>
       </c>
       <c r="G70" t="n">
-        <v>-21722.98426967002</v>
+        <v>-48009.87956967002</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3214,7 +3372,9 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3230,22 +3390,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>294.2</v>
+        <v>276.9</v>
       </c>
       <c r="C71" t="n">
-        <v>294.5</v>
+        <v>277.7</v>
       </c>
       <c r="D71" t="n">
-        <v>294.5</v>
+        <v>277.7</v>
       </c>
       <c r="E71" t="n">
-        <v>294.2</v>
+        <v>276.9</v>
       </c>
       <c r="F71" t="n">
-        <v>1900</v>
+        <v>93.8721</v>
       </c>
       <c r="G71" t="n">
-        <v>-21722.98426967002</v>
+        <v>-47916.00746967002</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3254,7 +3414,9 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3270,22 +3432,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>291</v>
+        <v>277.7</v>
       </c>
       <c r="C72" t="n">
-        <v>288.1</v>
+        <v>277.7</v>
       </c>
       <c r="D72" t="n">
-        <v>291</v>
+        <v>277.7</v>
       </c>
       <c r="E72" t="n">
-        <v>288.1</v>
+        <v>277.7</v>
       </c>
       <c r="F72" t="n">
-        <v>936.7229</v>
+        <v>85.9359</v>
       </c>
       <c r="G72" t="n">
-        <v>-22659.70716967002</v>
+        <v>-47916.00746967002</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3294,7 +3456,9 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3310,22 +3474,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>288.1</v>
+        <v>277.8</v>
       </c>
       <c r="C73" t="n">
-        <v>288.1</v>
+        <v>277.8</v>
       </c>
       <c r="D73" t="n">
-        <v>288.1</v>
+        <v>277.8</v>
       </c>
       <c r="E73" t="n">
-        <v>288.1</v>
+        <v>277.8</v>
       </c>
       <c r="F73" t="n">
-        <v>63.2771</v>
+        <v>10</v>
       </c>
       <c r="G73" t="n">
-        <v>-22659.70716967002</v>
+        <v>-47906.00746967002</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3334,7 +3498,9 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3350,22 +3516,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="C74" t="n">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="D74" t="n">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="E74" t="n">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="F74" t="n">
-        <v>69</v>
+        <v>408.9999</v>
       </c>
       <c r="G74" t="n">
-        <v>-22590.70716967002</v>
+        <v>-48315.00736967002</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3374,7 +3540,9 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3390,22 +3558,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>290</v>
+        <v>277.8</v>
       </c>
       <c r="C75" t="n">
-        <v>289</v>
+        <v>277.8</v>
       </c>
       <c r="D75" t="n">
-        <v>290</v>
+        <v>277.8</v>
       </c>
       <c r="E75" t="n">
-        <v>289</v>
+        <v>277.8</v>
       </c>
       <c r="F75" t="n">
-        <v>68</v>
+        <v>465.1229</v>
       </c>
       <c r="G75" t="n">
-        <v>-22658.70716967002</v>
+        <v>-47849.88446967002</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3414,7 +3582,9 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3430,22 +3600,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>289</v>
+        <v>277.8</v>
       </c>
       <c r="C76" t="n">
-        <v>287.6</v>
+        <v>278.7</v>
       </c>
       <c r="D76" t="n">
-        <v>289</v>
+        <v>278.7</v>
       </c>
       <c r="E76" t="n">
-        <v>287.6</v>
+        <v>277.8</v>
       </c>
       <c r="F76" t="n">
-        <v>100</v>
+        <v>3629.1464</v>
       </c>
       <c r="G76" t="n">
-        <v>-22758.70716967002</v>
+        <v>-44220.73806967002</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3454,7 +3624,9 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3470,22 +3642,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>291.7</v>
+        <v>279</v>
       </c>
       <c r="C77" t="n">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="D77" t="n">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="E77" t="n">
-        <v>291.7</v>
+        <v>279</v>
       </c>
       <c r="F77" t="n">
-        <v>100</v>
+        <v>136.367</v>
       </c>
       <c r="G77" t="n">
-        <v>-22658.70716967002</v>
+        <v>-44084.37106967002</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3494,7 +3666,9 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3510,22 +3684,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>288.4</v>
+        <v>280</v>
       </c>
       <c r="C78" t="n">
-        <v>288.4</v>
+        <v>281</v>
       </c>
       <c r="D78" t="n">
-        <v>288.4</v>
+        <v>281</v>
       </c>
       <c r="E78" t="n">
-        <v>288.4</v>
+        <v>280</v>
       </c>
       <c r="F78" t="n">
-        <v>400</v>
+        <v>7695.9036</v>
       </c>
       <c r="G78" t="n">
-        <v>-23058.70716967002</v>
+        <v>-36388.46746967002</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3534,7 +3708,9 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3550,22 +3726,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C79" t="n">
-        <v>294.2</v>
+        <v>284</v>
       </c>
       <c r="D79" t="n">
-        <v>294.3</v>
+        <v>284</v>
       </c>
       <c r="E79" t="n">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="F79" t="n">
-        <v>2188.7739</v>
+        <v>687</v>
       </c>
       <c r="G79" t="n">
-        <v>-20869.93326967002</v>
+        <v>-35701.46746967002</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3574,7 +3750,9 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3590,22 +3768,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>294.3</v>
+        <v>285</v>
       </c>
       <c r="C80" t="n">
-        <v>296.2</v>
+        <v>280</v>
       </c>
       <c r="D80" t="n">
-        <v>296.2</v>
+        <v>285</v>
       </c>
       <c r="E80" t="n">
-        <v>294.3</v>
+        <v>280</v>
       </c>
       <c r="F80" t="n">
-        <v>10242.5692</v>
+        <v>47</v>
       </c>
       <c r="G80" t="n">
-        <v>-10627.36406967002</v>
+        <v>-35748.46746967002</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3614,7 +3792,9 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3630,22 +3810,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>295.8</v>
+        <v>285</v>
       </c>
       <c r="C81" t="n">
-        <v>296.7</v>
+        <v>285.4</v>
       </c>
       <c r="D81" t="n">
-        <v>296.8</v>
+        <v>285.4</v>
       </c>
       <c r="E81" t="n">
-        <v>295.8</v>
+        <v>285</v>
       </c>
       <c r="F81" t="n">
-        <v>14046.2826</v>
+        <v>360</v>
       </c>
       <c r="G81" t="n">
-        <v>3418.918530329978</v>
+        <v>-35388.46746967002</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3654,7 +3834,9 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3670,22 +3852,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>296.7</v>
+        <v>286</v>
       </c>
       <c r="C82" t="n">
-        <v>297.1</v>
+        <v>286</v>
       </c>
       <c r="D82" t="n">
-        <v>297.1</v>
+        <v>286</v>
       </c>
       <c r="E82" t="n">
-        <v>296.7</v>
+        <v>286</v>
       </c>
       <c r="F82" t="n">
-        <v>59412.5424</v>
+        <v>2</v>
       </c>
       <c r="G82" t="n">
-        <v>62831.46093032998</v>
+        <v>-35386.46746967002</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3694,7 +3876,9 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3710,62 +3894,64 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>297.1</v>
+        <v>284</v>
       </c>
       <c r="C83" t="n">
-        <v>297.1</v>
+        <v>283</v>
       </c>
       <c r="D83" t="n">
-        <v>297.1</v>
+        <v>284</v>
       </c>
       <c r="E83" t="n">
-        <v>297.1</v>
+        <v>283</v>
       </c>
       <c r="F83" t="n">
-        <v>22588.6761</v>
+        <v>1504.7151</v>
       </c>
       <c r="G83" t="n">
-        <v>62831.46093032998</v>
+        <v>-36891.18256967003</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>266.2</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
-        <v>1.017018128005919</v>
-      </c>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>297.1</v>
+        <v>281.1</v>
       </c>
       <c r="C84" t="n">
-        <v>297.1</v>
+        <v>281.1</v>
       </c>
       <c r="D84" t="n">
-        <v>297.1</v>
+        <v>281.1</v>
       </c>
       <c r="E84" t="n">
-        <v>297.1</v>
+        <v>281.1</v>
       </c>
       <c r="F84" t="n">
-        <v>156.0468</v>
+        <v>1768.7468</v>
       </c>
       <c r="G84" t="n">
-        <v>62831.46093032998</v>
+        <v>-38659.92936967003</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3774,8 +3960,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3786,22 +3978,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>297.1</v>
+        <v>283</v>
       </c>
       <c r="C85" t="n">
-        <v>297.1</v>
+        <v>283</v>
       </c>
       <c r="D85" t="n">
-        <v>297.1</v>
+        <v>283</v>
       </c>
       <c r="E85" t="n">
-        <v>297.1</v>
+        <v>283</v>
       </c>
       <c r="F85" t="n">
-        <v>1747.5242</v>
+        <v>2</v>
       </c>
       <c r="G85" t="n">
-        <v>62831.46093032998</v>
+        <v>-38657.92936967003</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3810,8 +4002,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3822,22 +4020,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>297.1</v>
+        <v>280.2</v>
       </c>
       <c r="C86" t="n">
-        <v>297.1</v>
+        <v>279</v>
       </c>
       <c r="D86" t="n">
-        <v>297.1</v>
+        <v>280.2</v>
       </c>
       <c r="E86" t="n">
-        <v>297.1</v>
+        <v>279</v>
       </c>
       <c r="F86" t="n">
-        <v>269.0591</v>
+        <v>6937.2688</v>
       </c>
       <c r="G86" t="n">
-        <v>62831.46093032998</v>
+        <v>-45595.19816967002</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3846,8 +4044,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3858,22 +4062,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>297.1</v>
+        <v>280.1</v>
       </c>
       <c r="C87" t="n">
-        <v>299.1</v>
+        <v>283.9</v>
       </c>
       <c r="D87" t="n">
-        <v>299.1</v>
+        <v>283.9</v>
       </c>
       <c r="E87" t="n">
-        <v>297.1</v>
+        <v>280.1</v>
       </c>
       <c r="F87" t="n">
-        <v>4020</v>
+        <v>102.403</v>
       </c>
       <c r="G87" t="n">
-        <v>66851.46093032998</v>
+        <v>-45492.79516967003</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3882,8 +4086,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3894,22 +4104,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>299.1</v>
+        <v>281</v>
       </c>
       <c r="C88" t="n">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="D88" t="n">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="E88" t="n">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="F88" t="n">
-        <v>9465.3362</v>
+        <v>109.3963</v>
       </c>
       <c r="G88" t="n">
-        <v>57386.12473032998</v>
+        <v>-45602.19146967003</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3918,8 +4128,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3930,22 +4146,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>299</v>
+        <v>281.8</v>
       </c>
       <c r="C89" t="n">
-        <v>300</v>
+        <v>281.8</v>
       </c>
       <c r="D89" t="n">
-        <v>300</v>
+        <v>281.8</v>
       </c>
       <c r="E89" t="n">
-        <v>299</v>
+        <v>281.8</v>
       </c>
       <c r="F89" t="n">
-        <v>62.9968</v>
+        <v>1415.9066</v>
       </c>
       <c r="G89" t="n">
-        <v>57449.12153032998</v>
+        <v>-44186.28486967002</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3954,8 +4170,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3966,32 +4188,38 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>301.8</v>
+        <v>278</v>
       </c>
       <c r="C90" t="n">
-        <v>303.8</v>
+        <v>277.1</v>
       </c>
       <c r="D90" t="n">
-        <v>303.8</v>
+        <v>278</v>
       </c>
       <c r="E90" t="n">
-        <v>301.8</v>
+        <v>277.1</v>
       </c>
       <c r="F90" t="n">
-        <v>2385.2063</v>
+        <v>1800</v>
       </c>
       <c r="G90" t="n">
-        <v>59834.32783032998</v>
+        <v>-45986.28486967002</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4002,32 +4230,38 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>303.8</v>
+        <v>277.2</v>
       </c>
       <c r="C91" t="n">
-        <v>300</v>
+        <v>277.2</v>
       </c>
       <c r="D91" t="n">
-        <v>303.8</v>
+        <v>277.2</v>
       </c>
       <c r="E91" t="n">
-        <v>300</v>
+        <v>277.2</v>
       </c>
       <c r="F91" t="n">
-        <v>1770.6422</v>
+        <v>444.1485</v>
       </c>
       <c r="G91" t="n">
-        <v>58063.68563032998</v>
+        <v>-45542.13636967002</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4038,32 +4272,38 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="C92" t="n">
-        <v>294.7</v>
+        <v>282</v>
       </c>
       <c r="D92" t="n">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="E92" t="n">
-        <v>294.7</v>
+        <v>282</v>
       </c>
       <c r="F92" t="n">
-        <v>3677.0616</v>
+        <v>2</v>
       </c>
       <c r="G92" t="n">
-        <v>54386.62403032998</v>
+        <v>-45540.13636967002</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4074,32 +4314,38 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>295.7</v>
+        <v>282.9</v>
       </c>
       <c r="C93" t="n">
-        <v>294.7</v>
+        <v>282.9</v>
       </c>
       <c r="D93" t="n">
-        <v>295.7</v>
+        <v>282.9</v>
       </c>
       <c r="E93" t="n">
-        <v>294.7</v>
+        <v>282.9</v>
       </c>
       <c r="F93" t="n">
-        <v>2446.2031</v>
+        <v>2</v>
       </c>
       <c r="G93" t="n">
-        <v>54386.62403032998</v>
+        <v>-45538.13636967002</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4110,32 +4356,38 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>298</v>
+        <v>282.9</v>
       </c>
       <c r="C94" t="n">
-        <v>297.2</v>
+        <v>283</v>
       </c>
       <c r="D94" t="n">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="E94" t="n">
-        <v>297.2</v>
+        <v>282.9</v>
       </c>
       <c r="F94" t="n">
-        <v>389</v>
+        <v>184.1749</v>
       </c>
       <c r="G94" t="n">
-        <v>54775.62403032998</v>
+        <v>-45353.96146967002</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4146,32 +4398,38 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>297.1</v>
+        <v>283</v>
       </c>
       <c r="C95" t="n">
-        <v>297.1</v>
+        <v>283</v>
       </c>
       <c r="D95" t="n">
-        <v>297.1</v>
+        <v>283</v>
       </c>
       <c r="E95" t="n">
-        <v>297.1</v>
+        <v>283</v>
       </c>
       <c r="F95" t="n">
-        <v>386.4046</v>
+        <v>146.1283</v>
       </c>
       <c r="G95" t="n">
-        <v>54389.21943032998</v>
+        <v>-45353.96146967002</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4182,32 +4440,38 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>297.1</v>
+        <v>282.9</v>
       </c>
       <c r="C96" t="n">
-        <v>297.1</v>
+        <v>280.1</v>
       </c>
       <c r="D96" t="n">
-        <v>297.1</v>
+        <v>282.9</v>
       </c>
       <c r="E96" t="n">
-        <v>297.1</v>
+        <v>280.1</v>
       </c>
       <c r="F96" t="n">
-        <v>184.9024</v>
+        <v>726.7728</v>
       </c>
       <c r="G96" t="n">
-        <v>54389.21943032998</v>
+        <v>-46080.73426967002</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4218,32 +4482,38 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>299.9</v>
+        <v>281</v>
       </c>
       <c r="C97" t="n">
-        <v>299.9</v>
+        <v>285.4</v>
       </c>
       <c r="D97" t="n">
-        <v>299.9</v>
+        <v>285.4</v>
       </c>
       <c r="E97" t="n">
-        <v>299.9</v>
+        <v>280</v>
       </c>
       <c r="F97" t="n">
-        <v>66.68889629</v>
+        <v>7443.3366</v>
       </c>
       <c r="G97" t="n">
-        <v>54455.90832661997</v>
+        <v>-38637.39766967002</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4254,32 +4524,38 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>296.8</v>
+        <v>285.3</v>
       </c>
       <c r="C98" t="n">
-        <v>296.8</v>
+        <v>293</v>
       </c>
       <c r="D98" t="n">
-        <v>296.8</v>
+        <v>293</v>
       </c>
       <c r="E98" t="n">
-        <v>296.8</v>
+        <v>285.3</v>
       </c>
       <c r="F98" t="n">
-        <v>33</v>
+        <v>12814.2797</v>
       </c>
       <c r="G98" t="n">
-        <v>54422.90832661997</v>
+        <v>-25823.11796967002</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4290,32 +4566,38 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>296.8</v>
+        <v>292</v>
       </c>
       <c r="C99" t="n">
-        <v>296.8</v>
+        <v>294.5</v>
       </c>
       <c r="D99" t="n">
-        <v>296.8</v>
+        <v>294.5</v>
       </c>
       <c r="E99" t="n">
-        <v>296.8</v>
+        <v>292</v>
       </c>
       <c r="F99" t="n">
-        <v>9.3032</v>
+        <v>4100.1337</v>
       </c>
       <c r="G99" t="n">
-        <v>54422.90832661997</v>
+        <v>-21722.98426967002</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4326,32 +4608,38 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>296.8</v>
+        <v>294.2</v>
       </c>
       <c r="C100" t="n">
-        <v>296.8</v>
+        <v>294.5</v>
       </c>
       <c r="D100" t="n">
-        <v>296.8</v>
+        <v>294.5</v>
       </c>
       <c r="E100" t="n">
-        <v>296.8</v>
+        <v>294.2</v>
       </c>
       <c r="F100" t="n">
-        <v>3.3682</v>
+        <v>1900</v>
       </c>
       <c r="G100" t="n">
-        <v>54422.90832661997</v>
+        <v>-21722.98426967002</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4362,32 +4650,38 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C101" t="n">
-        <v>299.7</v>
+        <v>288.1</v>
       </c>
       <c r="D101" t="n">
-        <v>299.7</v>
+        <v>291</v>
       </c>
       <c r="E101" t="n">
-        <v>296</v>
+        <v>288.1</v>
       </c>
       <c r="F101" t="n">
-        <v>1558.6208</v>
+        <v>936.7229</v>
       </c>
       <c r="G101" t="n">
-        <v>55981.52912661997</v>
+        <v>-22659.70716967002</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4398,32 +4692,38 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>296</v>
+        <v>288.1</v>
       </c>
       <c r="C102" t="n">
-        <v>296</v>
+        <v>288.1</v>
       </c>
       <c r="D102" t="n">
-        <v>296</v>
+        <v>288.1</v>
       </c>
       <c r="E102" t="n">
-        <v>296</v>
+        <v>288.1</v>
       </c>
       <c r="F102" t="n">
-        <v>7.2819</v>
+        <v>63.2771</v>
       </c>
       <c r="G102" t="n">
-        <v>55974.24722661997</v>
+        <v>-22659.70716967002</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4434,32 +4734,38 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>299.7</v>
+        <v>290</v>
       </c>
       <c r="C103" t="n">
-        <v>299.7</v>
+        <v>290</v>
       </c>
       <c r="D103" t="n">
-        <v>299.7</v>
+        <v>290</v>
       </c>
       <c r="E103" t="n">
-        <v>299.7</v>
+        <v>290</v>
       </c>
       <c r="F103" t="n">
-        <v>133.46680013</v>
+        <v>69</v>
       </c>
       <c r="G103" t="n">
-        <v>56107.71402674997</v>
+        <v>-22590.70716967002</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4470,32 +4776,38 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C104" t="n">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D104" t="n">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E104" t="n">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F104" t="n">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="G104" t="n">
-        <v>56074.71402674997</v>
+        <v>-22658.70716967002</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4506,32 +4818,38 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>297.1</v>
+        <v>289</v>
       </c>
       <c r="C105" t="n">
-        <v>297.9</v>
+        <v>287.6</v>
       </c>
       <c r="D105" t="n">
-        <v>297.9</v>
+        <v>289</v>
       </c>
       <c r="E105" t="n">
-        <v>294.5</v>
+        <v>287.6</v>
       </c>
       <c r="F105" t="n">
-        <v>22355.5561</v>
+        <v>100</v>
       </c>
       <c r="G105" t="n">
-        <v>78430.27012674997</v>
+        <v>-22758.70716967002</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4542,32 +4860,38 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>296</v>
+        <v>291.7</v>
       </c>
       <c r="C106" t="n">
-        <v>295.2</v>
+        <v>292</v>
       </c>
       <c r="D106" t="n">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E106" t="n">
-        <v>295.2</v>
+        <v>291.7</v>
       </c>
       <c r="F106" t="n">
-        <v>7501.8815</v>
+        <v>100</v>
       </c>
       <c r="G106" t="n">
-        <v>70928.38862674996</v>
+        <v>-22658.70716967002</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4578,32 +4902,38 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>295</v>
+        <v>288.4</v>
       </c>
       <c r="C107" t="n">
-        <v>295</v>
+        <v>288.4</v>
       </c>
       <c r="D107" t="n">
-        <v>295</v>
+        <v>288.4</v>
       </c>
       <c r="E107" t="n">
-        <v>295</v>
+        <v>288.4</v>
       </c>
       <c r="F107" t="n">
-        <v>32</v>
+        <v>400</v>
       </c>
       <c r="G107" t="n">
-        <v>70896.38862674996</v>
+        <v>-23058.70716967002</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4614,32 +4944,38 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C108" t="n">
-        <v>297.9</v>
+        <v>294.2</v>
       </c>
       <c r="D108" t="n">
-        <v>297.9</v>
+        <v>294.3</v>
       </c>
       <c r="E108" t="n">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F108" t="n">
-        <v>416.6158</v>
+        <v>2188.7739</v>
       </c>
       <c r="G108" t="n">
-        <v>71313.00442674996</v>
+        <v>-20869.93326967002</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4650,32 +4986,38 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>295</v>
+        <v>294.3</v>
       </c>
       <c r="C109" t="n">
-        <v>295</v>
+        <v>296.2</v>
       </c>
       <c r="D109" t="n">
-        <v>295</v>
+        <v>296.2</v>
       </c>
       <c r="E109" t="n">
-        <v>295</v>
+        <v>294.3</v>
       </c>
       <c r="F109" t="n">
-        <v>1000</v>
+        <v>10242.5692</v>
       </c>
       <c r="G109" t="n">
-        <v>70313.00442674996</v>
+        <v>-10627.36406967002</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4686,36 +5028,1154 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
+        <v>295.8</v>
+      </c>
+      <c r="C110" t="n">
+        <v>296.7</v>
+      </c>
+      <c r="D110" t="n">
+        <v>296.8</v>
+      </c>
+      <c r="E110" t="n">
+        <v>295.8</v>
+      </c>
+      <c r="F110" t="n">
+        <v>14046.2826</v>
+      </c>
+      <c r="G110" t="n">
+        <v>3418.918530329978</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>296.7</v>
+      </c>
+      <c r="C111" t="n">
+        <v>297.1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>297.1</v>
+      </c>
+      <c r="E111" t="n">
+        <v>296.7</v>
+      </c>
+      <c r="F111" t="n">
+        <v>59412.5424</v>
+      </c>
+      <c r="G111" t="n">
+        <v>62831.46093032998</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>297.1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>297.1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>297.1</v>
+      </c>
+      <c r="E112" t="n">
+        <v>297.1</v>
+      </c>
+      <c r="F112" t="n">
+        <v>22588.6761</v>
+      </c>
+      <c r="G112" t="n">
+        <v>62831.46093032998</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>297.1</v>
+      </c>
+      <c r="C113" t="n">
+        <v>297.1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>297.1</v>
+      </c>
+      <c r="E113" t="n">
+        <v>297.1</v>
+      </c>
+      <c r="F113" t="n">
+        <v>156.0468</v>
+      </c>
+      <c r="G113" t="n">
+        <v>62831.46093032998</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>297.1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>297.1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>297.1</v>
+      </c>
+      <c r="E114" t="n">
+        <v>297.1</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1747.5242</v>
+      </c>
+      <c r="G114" t="n">
+        <v>62831.46093032998</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>297.1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>297.1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>297.1</v>
+      </c>
+      <c r="E115" t="n">
+        <v>297.1</v>
+      </c>
+      <c r="F115" t="n">
+        <v>269.0591</v>
+      </c>
+      <c r="G115" t="n">
+        <v>62831.46093032998</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>297.1</v>
+      </c>
+      <c r="C116" t="n">
+        <v>299.1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>299.1</v>
+      </c>
+      <c r="E116" t="n">
+        <v>297.1</v>
+      </c>
+      <c r="F116" t="n">
+        <v>4020</v>
+      </c>
+      <c r="G116" t="n">
+        <v>66851.46093032998</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>299.1</v>
+      </c>
+      <c r="C117" t="n">
+        <v>297</v>
+      </c>
+      <c r="D117" t="n">
+        <v>300</v>
+      </c>
+      <c r="E117" t="n">
+        <v>297</v>
+      </c>
+      <c r="F117" t="n">
+        <v>9465.3362</v>
+      </c>
+      <c r="G117" t="n">
+        <v>57386.12473032998</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>299</v>
+      </c>
+      <c r="C118" t="n">
+        <v>300</v>
+      </c>
+      <c r="D118" t="n">
+        <v>300</v>
+      </c>
+      <c r="E118" t="n">
+        <v>299</v>
+      </c>
+      <c r="F118" t="n">
+        <v>62.9968</v>
+      </c>
+      <c r="G118" t="n">
+        <v>57449.12153032998</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>301.8</v>
+      </c>
+      <c r="C119" t="n">
+        <v>303.8</v>
+      </c>
+      <c r="D119" t="n">
+        <v>303.8</v>
+      </c>
+      <c r="E119" t="n">
+        <v>301.8</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2385.2063</v>
+      </c>
+      <c r="G119" t="n">
+        <v>59834.32783032998</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>303.8</v>
+      </c>
+      <c r="C120" t="n">
+        <v>300</v>
+      </c>
+      <c r="D120" t="n">
+        <v>303.8</v>
+      </c>
+      <c r="E120" t="n">
+        <v>300</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1770.6422</v>
+      </c>
+      <c r="G120" t="n">
+        <v>58063.68563032998</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>298</v>
+      </c>
+      <c r="C121" t="n">
+        <v>294.7</v>
+      </c>
+      <c r="D121" t="n">
+        <v>298</v>
+      </c>
+      <c r="E121" t="n">
+        <v>294.7</v>
+      </c>
+      <c r="F121" t="n">
+        <v>3677.0616</v>
+      </c>
+      <c r="G121" t="n">
+        <v>54386.62403032998</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1.102062359128475</v>
+      </c>
+      <c r="N121" t="n">
+        <v>1.026671675432006</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>295.7</v>
+      </c>
+      <c r="C122" t="n">
+        <v>294.7</v>
+      </c>
+      <c r="D122" t="n">
+        <v>295.7</v>
+      </c>
+      <c r="E122" t="n">
+        <v>294.7</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2446.2031</v>
+      </c>
+      <c r="G122" t="n">
+        <v>54386.62403032998</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>298</v>
+      </c>
+      <c r="C123" t="n">
+        <v>297.2</v>
+      </c>
+      <c r="D123" t="n">
+        <v>298</v>
+      </c>
+      <c r="E123" t="n">
+        <v>297.2</v>
+      </c>
+      <c r="F123" t="n">
+        <v>389</v>
+      </c>
+      <c r="G123" t="n">
+        <v>54775.62403032998</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>297.1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>297.1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>297.1</v>
+      </c>
+      <c r="E124" t="n">
+        <v>297.1</v>
+      </c>
+      <c r="F124" t="n">
+        <v>386.4046</v>
+      </c>
+      <c r="G124" t="n">
+        <v>54389.21943032998</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>297.1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>297.1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>297.1</v>
+      </c>
+      <c r="E125" t="n">
+        <v>297.1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>184.9024</v>
+      </c>
+      <c r="G125" t="n">
+        <v>54389.21943032998</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>299.9</v>
+      </c>
+      <c r="C126" t="n">
+        <v>299.9</v>
+      </c>
+      <c r="D126" t="n">
+        <v>299.9</v>
+      </c>
+      <c r="E126" t="n">
+        <v>299.9</v>
+      </c>
+      <c r="F126" t="n">
+        <v>66.68889629</v>
+      </c>
+      <c r="G126" t="n">
+        <v>54455.90832661997</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>296.8</v>
+      </c>
+      <c r="C127" t="n">
+        <v>296.8</v>
+      </c>
+      <c r="D127" t="n">
+        <v>296.8</v>
+      </c>
+      <c r="E127" t="n">
+        <v>296.8</v>
+      </c>
+      <c r="F127" t="n">
+        <v>33</v>
+      </c>
+      <c r="G127" t="n">
+        <v>54422.90832661997</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>296.8</v>
+      </c>
+      <c r="C128" t="n">
+        <v>296.8</v>
+      </c>
+      <c r="D128" t="n">
+        <v>296.8</v>
+      </c>
+      <c r="E128" t="n">
+        <v>296.8</v>
+      </c>
+      <c r="F128" t="n">
+        <v>9.3032</v>
+      </c>
+      <c r="G128" t="n">
+        <v>54422.90832661997</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>296.8</v>
+      </c>
+      <c r="C129" t="n">
+        <v>296.8</v>
+      </c>
+      <c r="D129" t="n">
+        <v>296.8</v>
+      </c>
+      <c r="E129" t="n">
+        <v>296.8</v>
+      </c>
+      <c r="F129" t="n">
+        <v>3.3682</v>
+      </c>
+      <c r="G129" t="n">
+        <v>54422.90832661997</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>296</v>
+      </c>
+      <c r="C130" t="n">
+        <v>299.7</v>
+      </c>
+      <c r="D130" t="n">
+        <v>299.7</v>
+      </c>
+      <c r="E130" t="n">
+        <v>296</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1558.6208</v>
+      </c>
+      <c r="G130" t="n">
+        <v>55981.52912661997</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>296</v>
+      </c>
+      <c r="C131" t="n">
+        <v>296</v>
+      </c>
+      <c r="D131" t="n">
+        <v>296</v>
+      </c>
+      <c r="E131" t="n">
+        <v>296</v>
+      </c>
+      <c r="F131" t="n">
+        <v>7.2819</v>
+      </c>
+      <c r="G131" t="n">
+        <v>55974.24722661997</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>299.7</v>
+      </c>
+      <c r="C132" t="n">
+        <v>299.7</v>
+      </c>
+      <c r="D132" t="n">
+        <v>299.7</v>
+      </c>
+      <c r="E132" t="n">
+        <v>299.7</v>
+      </c>
+      <c r="F132" t="n">
+        <v>133.46680013</v>
+      </c>
+      <c r="G132" t="n">
+        <v>56107.71402674997</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>296</v>
+      </c>
+      <c r="C133" t="n">
+        <v>296</v>
+      </c>
+      <c r="D133" t="n">
+        <v>296</v>
+      </c>
+      <c r="E133" t="n">
+        <v>296</v>
+      </c>
+      <c r="F133" t="n">
+        <v>33</v>
+      </c>
+      <c r="G133" t="n">
+        <v>56074.71402674997</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>297.1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>297.9</v>
+      </c>
+      <c r="D134" t="n">
+        <v>297.9</v>
+      </c>
+      <c r="E134" t="n">
+        <v>294.5</v>
+      </c>
+      <c r="F134" t="n">
+        <v>22355.5561</v>
+      </c>
+      <c r="G134" t="n">
+        <v>78430.27012674997</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>296</v>
+      </c>
+      <c r="C135" t="n">
+        <v>295.2</v>
+      </c>
+      <c r="D135" t="n">
+        <v>296</v>
+      </c>
+      <c r="E135" t="n">
+        <v>295.2</v>
+      </c>
+      <c r="F135" t="n">
+        <v>7501.8815</v>
+      </c>
+      <c r="G135" t="n">
+        <v>70928.38862674996</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>295</v>
+      </c>
+      <c r="C136" t="n">
+        <v>295</v>
+      </c>
+      <c r="D136" t="n">
+        <v>295</v>
+      </c>
+      <c r="E136" t="n">
+        <v>295</v>
+      </c>
+      <c r="F136" t="n">
+        <v>32</v>
+      </c>
+      <c r="G136" t="n">
+        <v>70896.38862674996</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>294</v>
+      </c>
+      <c r="C137" t="n">
+        <v>297.9</v>
+      </c>
+      <c r="D137" t="n">
+        <v>297.9</v>
+      </c>
+      <c r="E137" t="n">
+        <v>294</v>
+      </c>
+      <c r="F137" t="n">
+        <v>416.6158</v>
+      </c>
+      <c r="G137" t="n">
+        <v>71313.00442674996</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>295</v>
+      </c>
+      <c r="C138" t="n">
+        <v>295</v>
+      </c>
+      <c r="D138" t="n">
+        <v>295</v>
+      </c>
+      <c r="E138" t="n">
+        <v>295</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G138" t="n">
+        <v>70313.00442674996</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
         <v>293.6</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C139" t="n">
         <v>293.6</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D139" t="n">
         <v>293.6</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E139" t="n">
         <v>293.6</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F139" t="n">
         <v>23.7203</v>
       </c>
-      <c r="G110" t="n">
+      <c r="G139" t="n">
         <v>70289.28412674996</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest PIVX.xlsx
+++ b/BackTest/2020-01-16 BackTest PIVX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N139"/>
+  <dimension ref="A1:M139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-32809.93519103</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>-32358.52329103</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>266.2</v>
       </c>
       <c r="J3" t="n">
         <v>266.2</v>
       </c>
-      <c r="K3" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>-32180.80429103</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="J4" t="n">
-        <v>272</v>
-      </c>
-      <c r="K4" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L4" t="inlineStr">
+        <v>266.2</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>-31461.36579103</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>272.5</v>
       </c>
       <c r="J5" t="n">
-        <v>272.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L5" t="inlineStr">
+        <v>266.2</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,26 +603,23 @@
         <v>-31461.36579103</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="J6" t="n">
-        <v>273</v>
-      </c>
-      <c r="K6" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L6" t="inlineStr">
+        <v>266.2</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,26 +644,23 @@
         <v>-31101.39886967</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="J7" t="n">
-        <v>273</v>
-      </c>
-      <c r="K7" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -708,24 +685,23 @@
         <v>-33870.95256966999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>278</v>
+      </c>
+      <c r="J8" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -750,24 +726,23 @@
         <v>-33700.95256966999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>273</v>
+      </c>
+      <c r="J9" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -792,24 +767,23 @@
         <v>-34190.95256966999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>277</v>
+      </c>
+      <c r="J10" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -836,22 +810,19 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -876,24 +847,23 @@
         <v>-36472.53826967</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J12" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -918,24 +888,23 @@
         <v>-45208.36516967</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>272.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -960,26 +929,23 @@
         <v>-51969.37066967</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>270.1</v>
       </c>
       <c r="J14" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1004,26 +970,23 @@
         <v>-56456.27056967</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="J15" t="n">
-        <v>270</v>
-      </c>
-      <c r="K15" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1048,26 +1011,23 @@
         <v>-55572.53866967</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>266.2</v>
       </c>
       <c r="J16" t="n">
         <v>266.2</v>
       </c>
-      <c r="K16" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1092,26 +1052,23 @@
         <v>-57735.03666967</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>272.9</v>
       </c>
       <c r="J17" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="K17" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1136,26 +1093,23 @@
         <v>-57583.85066967</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>266.2</v>
       </c>
       <c r="J18" t="n">
         <v>266.2</v>
       </c>
-      <c r="K18" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1180,26 +1134,21 @@
         <v>-57581.85066967</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>271.9</v>
-      </c>
-      <c r="K19" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1224,26 +1173,21 @@
         <v>-58131.82066967</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>273</v>
-      </c>
-      <c r="K20" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1268,26 +1212,21 @@
         <v>-55688.10646967</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>266.2</v>
       </c>
-      <c r="K21" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1312,26 +1251,21 @@
         <v>-61179.01906967</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="K22" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1356,26 +1290,21 @@
         <v>-61068.69256967</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="K23" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1400,26 +1329,21 @@
         <v>-59873.72856967</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>272</v>
-      </c>
-      <c r="K24" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1444,26 +1368,21 @@
         <v>-59873.72856967</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>275</v>
-      </c>
-      <c r="K25" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1488,26 +1407,21 @@
         <v>-59873.72856967</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>275</v>
-      </c>
-      <c r="K26" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1532,26 +1446,21 @@
         <v>-69930.46896966999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>275</v>
-      </c>
-      <c r="K27" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1576,26 +1485,21 @@
         <v>-68764.62226967</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>270</v>
-      </c>
-      <c r="K28" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1620,26 +1524,21 @@
         <v>-68838.62226967</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>274.8</v>
-      </c>
-      <c r="K29" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1664,26 +1563,21 @@
         <v>-68836.62226967</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="K30" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1708,26 +1602,21 @@
         <v>-68671.77466967001</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>272</v>
-      </c>
-      <c r="K31" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1752,26 +1641,21 @@
         <v>-68591.77466967001</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>273</v>
-      </c>
-      <c r="K32" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1796,26 +1680,21 @@
         <v>-68891.32366967</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>274.9</v>
-      </c>
-      <c r="K33" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1840,26 +1719,21 @@
         <v>-69372.28766967001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>273</v>
-      </c>
-      <c r="K34" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1884,26 +1758,21 @@
         <v>-69372.28766967001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>271</v>
-      </c>
-      <c r="K35" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1928,26 +1797,21 @@
         <v>-73322.49006967001</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>271</v>
-      </c>
-      <c r="K36" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1972,26 +1836,21 @@
         <v>-71010.49006967001</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>270.3</v>
-      </c>
-      <c r="K37" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2016,26 +1875,21 @@
         <v>-71027.47196967</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>275.8</v>
-      </c>
-      <c r="K38" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2060,26 +1914,21 @@
         <v>-69458.06126967001</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="K39" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2104,26 +1953,21 @@
         <v>-65803.27156967002</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>275.9</v>
-      </c>
-      <c r="K40" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2150,22 +1994,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2192,22 +2033,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2234,22 +2072,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2276,22 +2111,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2318,22 +2150,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2360,22 +2189,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2402,22 +2228,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2444,22 +2267,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2486,22 +2306,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2528,22 +2345,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2570,22 +2384,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2612,22 +2423,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2654,22 +2462,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2696,22 +2501,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2738,22 +2540,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2780,22 +2579,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2822,22 +2618,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2864,22 +2657,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2906,22 +2696,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2948,22 +2735,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2990,22 +2774,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3032,22 +2813,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3074,22 +2852,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3116,22 +2891,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3158,22 +2930,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3200,22 +2969,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3242,22 +3008,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3284,22 +3047,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3326,22 +3086,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3368,22 +3125,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3410,22 +3164,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3452,22 +3203,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3494,22 +3242,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3536,22 +3281,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3578,22 +3320,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3620,22 +3359,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3662,22 +3398,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3704,22 +3437,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3746,22 +3476,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3788,22 +3515,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3830,22 +3554,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3872,22 +3593,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3914,22 +3632,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3954,24 +3669,23 @@
         <v>-38659.92936967003</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1.050972952667168</v>
       </c>
       <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>1.026671675432006</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3998,22 +3712,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4040,22 +3745,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4082,22 +3778,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4124,22 +3811,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4166,22 +3844,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4208,22 +3877,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4250,22 +3910,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4292,22 +3943,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4334,22 +3976,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4376,22 +4009,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4418,22 +4042,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4460,22 +4075,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4502,22 +4108,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4544,22 +4141,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4586,22 +4174,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4628,22 +4207,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4668,24 +4238,15 @@
         <v>-22659.70716967002</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4710,24 +4271,15 @@
         <v>-22659.70716967002</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4754,22 +4306,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4794,24 +4337,15 @@
         <v>-22658.70716967002</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4836,24 +4370,15 @@
         <v>-22758.70716967002</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4880,22 +4405,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4920,24 +4436,15 @@
         <v>-23058.70716967002</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4962,24 +4469,15 @@
         <v>-20869.93326967002</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -5006,22 +4504,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5048,22 +4537,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5090,22 +4570,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5132,22 +4603,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5172,24 +4634,15 @@
         <v>62831.46093032998</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5214,24 +4667,15 @@
         <v>62831.46093032998</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5256,24 +4700,15 @@
         <v>62831.46093032998</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5298,24 +4733,15 @@
         <v>66851.46093032998</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5340,24 +4766,15 @@
         <v>57386.12473032998</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5382,24 +4799,15 @@
         <v>57449.12153032998</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5424,24 +4832,15 @@
         <v>59834.32783032998</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5466,24 +4865,15 @@
         <v>58063.68563032998</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5508,26 +4898,15 @@
         <v>54386.62403032998</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1.102062359128475</v>
-      </c>
-      <c r="N121" t="n">
-        <v>1.026671675432006</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5552,18 +4931,15 @@
         <v>54386.62403032998</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5590,16 +4966,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5624,18 +4997,15 @@
         <v>54389.21943032998</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5660,18 +5030,15 @@
         <v>54389.21943032998</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5696,18 +5063,15 @@
         <v>54455.90832661997</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5734,16 +5098,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5770,16 +5131,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5806,16 +5164,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5842,16 +5197,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5878,16 +5230,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5912,18 +5261,15 @@
         <v>56107.71402674997</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5950,16 +5296,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5984,18 +5327,15 @@
         <v>78430.27012674997</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6022,16 +5362,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6056,18 +5393,15 @@
         <v>70896.38862674996</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6094,16 +5428,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6130,16 +5461,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6166,18 +5494,15 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest PIVX.xlsx
+++ b/BackTest/2020-01-16 BackTest PIVX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-32809.93519103</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-32358.52329103</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>266.2</v>
@@ -521,7 +521,7 @@
         <v>-32180.80429103</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>272</v>
@@ -562,7 +562,7 @@
         <v>-31461.36579103</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>272.5</v>
@@ -603,7 +603,7 @@
         <v>-31461.36579103</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>273</v>
@@ -644,7 +644,7 @@
         <v>-31101.39886967</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>273</v>
@@ -685,7 +685,7 @@
         <v>-33870.95256966999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>278</v>
@@ -726,7 +726,7 @@
         <v>-33700.95256966999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>273</v>
@@ -767,7 +767,7 @@
         <v>-34190.95256966999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>277</v>
@@ -808,9 +808,11 @@
         <v>-34305.95256966999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>276.9</v>
+      </c>
       <c r="J11" t="n">
         <v>266.2</v>
       </c>
@@ -847,7 +849,7 @@
         <v>-36472.53826967</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>274</v>
@@ -888,7 +890,7 @@
         <v>-45208.36516967</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>272.5</v>
@@ -929,7 +931,7 @@
         <v>-51969.37066967</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>270.1</v>
@@ -970,7 +972,7 @@
         <v>-56456.27056967</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>270</v>
@@ -1011,7 +1013,7 @@
         <v>-55572.53866967</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>266.2</v>
@@ -1052,7 +1054,7 @@
         <v>-57735.03666967</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>272.9</v>
@@ -1093,7 +1095,7 @@
         <v>-57583.85066967</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>266.2</v>
@@ -1134,9 +1136,11 @@
         <v>-57581.85066967</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>271.9</v>
+      </c>
       <c r="J19" t="n">
         <v>266.2</v>
       </c>
@@ -1173,9 +1177,11 @@
         <v>-58131.82066967</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>273</v>
+      </c>
       <c r="J20" t="n">
         <v>266.2</v>
       </c>
@@ -1212,9 +1218,11 @@
         <v>-55688.10646967</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>266.2</v>
+      </c>
       <c r="J21" t="n">
         <v>266.2</v>
       </c>
@@ -1251,9 +1259,11 @@
         <v>-61179.01906967</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>272.9</v>
+      </c>
       <c r="J22" t="n">
         <v>266.2</v>
       </c>
@@ -1290,9 +1300,11 @@
         <v>-61068.69256967</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>266.4</v>
+      </c>
       <c r="J23" t="n">
         <v>266.2</v>
       </c>
@@ -1329,9 +1341,11 @@
         <v>-59873.72856967</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>272</v>
+      </c>
       <c r="J24" t="n">
         <v>266.2</v>
       </c>
@@ -1368,9 +1382,11 @@
         <v>-59873.72856967</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>275</v>
+      </c>
       <c r="J25" t="n">
         <v>266.2</v>
       </c>
@@ -1407,9 +1423,11 @@
         <v>-59873.72856967</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>275</v>
+      </c>
       <c r="J26" t="n">
         <v>266.2</v>
       </c>
@@ -1446,9 +1464,11 @@
         <v>-69930.46896966999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>275</v>
+      </c>
       <c r="J27" t="n">
         <v>266.2</v>
       </c>
@@ -1485,9 +1505,11 @@
         <v>-68764.62226967</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>270</v>
+      </c>
       <c r="J28" t="n">
         <v>266.2</v>
       </c>
@@ -1524,9 +1546,11 @@
         <v>-68838.62226967</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>274.8</v>
+      </c>
       <c r="J29" t="n">
         <v>266.2</v>
       </c>
@@ -1563,9 +1587,11 @@
         <v>-68836.62226967</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>270.1</v>
+      </c>
       <c r="J30" t="n">
         <v>266.2</v>
       </c>
@@ -1602,9 +1628,11 @@
         <v>-68671.77466967001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>272</v>
+      </c>
       <c r="J31" t="n">
         <v>266.2</v>
       </c>
@@ -1641,9 +1669,11 @@
         <v>-68591.77466967001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>273</v>
+      </c>
       <c r="J32" t="n">
         <v>266.2</v>
       </c>
@@ -1680,9 +1710,11 @@
         <v>-68891.32366967</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>274.9</v>
+      </c>
       <c r="J33" t="n">
         <v>266.2</v>
       </c>
@@ -1719,9 +1751,11 @@
         <v>-69372.28766967001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>273</v>
+      </c>
       <c r="J34" t="n">
         <v>266.2</v>
       </c>
@@ -1758,9 +1792,11 @@
         <v>-69372.28766967001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>271</v>
+      </c>
       <c r="J35" t="n">
         <v>266.2</v>
       </c>
@@ -1797,9 +1833,11 @@
         <v>-73322.49006967001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>271</v>
+      </c>
       <c r="J36" t="n">
         <v>266.2</v>
       </c>
@@ -1836,9 +1874,11 @@
         <v>-71010.49006967001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>270.3</v>
+      </c>
       <c r="J37" t="n">
         <v>266.2</v>
       </c>
@@ -1875,9 +1915,11 @@
         <v>-71027.47196967</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>275.8</v>
+      </c>
       <c r="J38" t="n">
         <v>266.2</v>
       </c>
@@ -1914,9 +1956,11 @@
         <v>-69458.06126967001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>273.1</v>
+      </c>
       <c r="J39" t="n">
         <v>266.2</v>
       </c>
@@ -1953,9 +1997,11 @@
         <v>-65803.27156967002</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>275.9</v>
+      </c>
       <c r="J40" t="n">
         <v>266.2</v>
       </c>
@@ -1992,9 +2038,11 @@
         <v>-48596.52696967001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>276</v>
+      </c>
       <c r="J41" t="n">
         <v>266.2</v>
       </c>
@@ -3669,7 +3717,7 @@
         <v>-38659.92936967003</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
@@ -3677,15 +3725,13 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.050972952667168</v>
-      </c>
-      <c r="M84" t="n">
-        <v>1.026671675432006</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3713,8 +3759,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3746,8 +3798,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3779,8 +3837,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3812,8 +3876,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3845,8 +3915,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3878,8 +3954,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3911,8 +3993,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3944,8 +4032,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3977,8 +4071,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4010,8 +4110,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4043,8 +4149,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4076,8 +4188,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4109,8 +4227,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4142,8 +4266,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4175,8 +4305,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4208,8 +4344,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4238,11 +4380,17 @@
         <v>-22659.70716967002</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4271,11 +4419,17 @@
         <v>-22659.70716967002</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4307,8 +4461,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4337,11 +4497,17 @@
         <v>-22658.70716967002</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4370,11 +4536,17 @@
         <v>-22758.70716967002</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4406,8 +4578,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4436,11 +4614,17 @@
         <v>-23058.70716967002</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4469,11 +4653,17 @@
         <v>-20869.93326967002</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4505,8 +4695,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4538,8 +4734,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4571,8 +4773,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4604,8 +4812,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4634,11 +4848,17 @@
         <v>62831.46093032998</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4667,11 +4887,17 @@
         <v>62831.46093032998</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4700,11 +4926,17 @@
         <v>62831.46093032998</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4733,11 +4965,17 @@
         <v>66851.46093032998</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4766,11 +5004,17 @@
         <v>57386.12473032998</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4799,11 +5043,17 @@
         <v>57449.12153032998</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4832,11 +5082,17 @@
         <v>59834.32783032998</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4865,11 +5121,17 @@
         <v>58063.68563032998</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4898,11 +5160,17 @@
         <v>54386.62403032998</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4931,11 +5199,17 @@
         <v>54386.62403032998</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4967,8 +5241,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4997,15 +5277,23 @@
         <v>54389.21943032998</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>1.111078136739294</v>
+      </c>
+      <c r="M124" t="n">
+        <v>1.026671675432006</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5030,7 +5318,7 @@
         <v>54389.21943032998</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5063,7 +5351,7 @@
         <v>54455.90832661997</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5096,7 +5384,7 @@
         <v>54422.90832661997</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5129,7 +5417,7 @@
         <v>54422.90832661997</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5162,7 +5450,7 @@
         <v>54422.90832661997</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5195,7 +5483,7 @@
         <v>55981.52912661997</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5228,7 +5516,7 @@
         <v>55974.24722661997</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5261,7 +5549,7 @@
         <v>56107.71402674997</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5294,7 +5582,7 @@
         <v>56074.71402674997</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5327,7 +5615,7 @@
         <v>78430.27012674997</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5360,7 +5648,7 @@
         <v>70928.38862674996</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5393,7 +5681,7 @@
         <v>70896.38862674996</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5426,7 +5714,7 @@
         <v>71313.00442674996</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5459,7 +5747,7 @@
         <v>70313.00442674996</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5492,7 +5780,7 @@
         <v>70289.28412674996</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5503,6 +5791,6 @@
       <c r="M139" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest PIVX.xlsx
+++ b/BackTest/2020-01-16 BackTest PIVX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -562,11 +562,9 @@
         <v>-31461.36579103</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>272.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>266.2</v>
       </c>
@@ -603,19 +601,11 @@
         <v>-31461.36579103</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>273</v>
-      </c>
-      <c r="J6" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +634,11 @@
         <v>-31101.39886967</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>273</v>
-      </c>
-      <c r="J7" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,19 +667,11 @@
         <v>-33870.95256966999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>278</v>
-      </c>
-      <c r="J8" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -726,19 +700,11 @@
         <v>-33700.95256966999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>273</v>
-      </c>
-      <c r="J9" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -767,19 +733,11 @@
         <v>-34190.95256966999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>277</v>
-      </c>
-      <c r="J10" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -808,19 +766,11 @@
         <v>-34305.95256966999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>276.9</v>
-      </c>
-      <c r="J11" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -849,19 +799,11 @@
         <v>-36472.53826967</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>274</v>
-      </c>
-      <c r="J12" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -890,19 +832,11 @@
         <v>-45208.36516967</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>272.5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -931,19 +865,11 @@
         <v>-51969.37066967</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -972,19 +898,11 @@
         <v>-56456.27056967</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>270</v>
-      </c>
-      <c r="J15" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1013,19 +931,11 @@
         <v>-55572.53866967</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1054,19 +964,11 @@
         <v>-57735.03666967</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="J17" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1103,11 +1005,7 @@
       <c r="J18" t="n">
         <v>266.2</v>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1136,17 +1034,15 @@
         <v>-57581.85066967</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>271.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>266.2</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1177,17 +1073,15 @@
         <v>-58131.82066967</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>273</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>266.2</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1218,19 +1112,11 @@
         <v>-55688.10646967</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1259,19 +1145,11 @@
         <v>-61179.01906967</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="J22" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1300,19 +1178,11 @@
         <v>-61068.69256967</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="J23" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1341,19 +1211,11 @@
         <v>-59873.72856967</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>272</v>
-      </c>
-      <c r="J24" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1382,19 +1244,11 @@
         <v>-59873.72856967</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>275</v>
-      </c>
-      <c r="J25" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1423,19 +1277,11 @@
         <v>-59873.72856967</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>275</v>
-      </c>
-      <c r="J26" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1464,19 +1310,11 @@
         <v>-69930.46896966999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>275</v>
-      </c>
-      <c r="J27" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1505,19 +1343,11 @@
         <v>-68764.62226967</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>270</v>
-      </c>
-      <c r="J28" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1546,19 +1376,11 @@
         <v>-68838.62226967</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>274.8</v>
-      </c>
-      <c r="J29" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1587,19 +1409,11 @@
         <v>-68836.62226967</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1628,19 +1442,11 @@
         <v>-68671.77466967001</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>272</v>
-      </c>
-      <c r="J31" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1669,19 +1475,11 @@
         <v>-68591.77466967001</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>273</v>
-      </c>
-      <c r="J32" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1710,19 +1508,11 @@
         <v>-68891.32366967</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>274.9</v>
-      </c>
-      <c r="J33" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1751,19 +1541,11 @@
         <v>-69372.28766967001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>273</v>
-      </c>
-      <c r="J34" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1792,19 +1574,11 @@
         <v>-69372.28766967001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>271</v>
-      </c>
-      <c r="J35" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1833,19 +1607,11 @@
         <v>-73322.49006967001</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>271</v>
-      </c>
-      <c r="J36" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1874,19 +1640,11 @@
         <v>-71010.49006967001</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>270.3</v>
-      </c>
-      <c r="J37" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1915,19 +1673,11 @@
         <v>-71027.47196967</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>275.8</v>
-      </c>
-      <c r="J38" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1956,19 +1706,11 @@
         <v>-69458.06126967001</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1997,19 +1739,11 @@
         <v>-65803.27156967002</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>275.9</v>
-      </c>
-      <c r="J40" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2038,19 +1772,11 @@
         <v>-48596.52696967001</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>276</v>
-      </c>
-      <c r="J41" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2082,14 +1808,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2121,14 +1841,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2160,14 +1874,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2199,14 +1907,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2238,14 +1940,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2277,14 +1973,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2316,14 +2006,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2355,14 +2039,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2394,14 +2072,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2433,14 +2105,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2472,14 +2138,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2511,14 +2171,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2550,14 +2204,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2589,14 +2237,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2628,14 +2270,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2667,14 +2303,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2706,14 +2336,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2745,14 +2369,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2784,14 +2402,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2823,14 +2435,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2862,14 +2468,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2901,14 +2501,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2940,14 +2534,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2979,14 +2567,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -3018,14 +2600,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3057,14 +2633,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3096,14 +2666,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3135,14 +2699,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3174,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3213,14 +2765,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3252,14 +2798,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3291,14 +2831,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3330,14 +2864,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3369,14 +2897,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3408,14 +2930,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3447,14 +2963,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3486,14 +2996,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3525,14 +3029,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3564,14 +3062,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3603,14 +3095,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3642,14 +3128,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3678,17 +3158,11 @@
         <v>-36891.18256967003</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3720,14 +3194,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3759,14 +3227,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3798,14 +3260,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3837,14 +3293,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3876,14 +3326,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3915,14 +3359,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3954,14 +3392,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3993,14 +3425,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4032,14 +3458,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4071,14 +3491,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4110,14 +3524,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4149,14 +3557,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4188,14 +3590,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4227,14 +3623,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4266,14 +3656,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4305,14 +3689,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4344,14 +3722,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4383,14 +3755,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4422,14 +3788,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4461,14 +3821,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4497,17 +3851,11 @@
         <v>-22658.70716967002</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4536,17 +3884,11 @@
         <v>-22758.70716967002</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4575,17 +3917,11 @@
         <v>-22658.70716967002</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4614,17 +3950,11 @@
         <v>-23058.70716967002</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4653,17 +3983,11 @@
         <v>-20869.93326967002</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4695,14 +4019,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4734,14 +4052,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4773,14 +4085,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4812,14 +4118,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4851,14 +4151,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4890,14 +4184,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4929,14 +4217,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4968,14 +4250,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -5007,14 +4283,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5046,14 +4316,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5085,14 +4349,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5124,14 +4382,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5163,14 +4415,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5202,14 +4448,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5241,14 +4481,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5277,23 +4511,15 @@
         <v>54389.21943032998</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
-        <v>1.111078136739294</v>
-      </c>
-      <c r="M124" t="n">
-        <v>1.026671675432006</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5384,7 +4610,7 @@
         <v>54422.90832661997</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5417,7 +4643,7 @@
         <v>54422.90832661997</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5450,7 +4676,7 @@
         <v>54422.90832661997</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5483,7 +4709,7 @@
         <v>55981.52912661997</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5516,7 +4742,7 @@
         <v>55974.24722661997</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5549,7 +4775,7 @@
         <v>56107.71402674997</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5582,7 +4808,7 @@
         <v>56074.71402674997</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5615,7 +4841,7 @@
         <v>78430.27012674997</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5648,7 +4874,7 @@
         <v>70928.38862674996</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5681,7 +4907,7 @@
         <v>70896.38862674996</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5714,7 +4940,7 @@
         <v>71313.00442674996</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5747,7 +4973,7 @@
         <v>70313.00442674996</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5780,7 +5006,7 @@
         <v>70289.28412674996</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5791,6 +5017,6 @@
       <c r="M139" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest PIVX.xlsx
+++ b/BackTest/2020-01-16 BackTest PIVX.xlsx
@@ -562,9 +562,11 @@
         <v>-31461.36579103</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>272.5</v>
+      </c>
       <c r="J5" t="n">
         <v>266.2</v>
       </c>
@@ -601,11 +603,19 @@
         <v>-31461.36579103</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>273</v>
+      </c>
+      <c r="J6" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -634,11 +644,19 @@
         <v>-31101.39886967</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>273</v>
+      </c>
+      <c r="J7" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -670,8 +688,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -703,8 +727,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -736,8 +766,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -769,8 +805,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -802,8 +844,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -835,8 +883,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -868,8 +922,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -901,8 +961,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -931,11 +997,19 @@
         <v>-55572.53866967</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -964,11 +1038,19 @@
         <v>-57735.03666967</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>272.9</v>
+      </c>
+      <c r="J17" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1005,7 +1087,11 @@
       <c r="J18" t="n">
         <v>266.2</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1034,15 +1120,17 @@
         <v>-57581.85066967</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>271.9</v>
+      </c>
       <c r="J19" t="n">
         <v>266.2</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1073,15 +1161,17 @@
         <v>-58131.82066967</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>273</v>
+      </c>
       <c r="J20" t="n">
         <v>266.2</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1112,11 +1202,19 @@
         <v>-55688.10646967</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1145,11 +1243,19 @@
         <v>-61179.01906967</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>272.9</v>
+      </c>
+      <c r="J22" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1178,11 +1284,19 @@
         <v>-61068.69256967</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="J23" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1211,11 +1325,19 @@
         <v>-59873.72856967</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>272</v>
+      </c>
+      <c r="J24" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1244,11 +1366,19 @@
         <v>-59873.72856967</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>275</v>
+      </c>
+      <c r="J25" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1277,11 +1407,19 @@
         <v>-59873.72856967</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>275</v>
+      </c>
+      <c r="J26" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1310,11 +1448,19 @@
         <v>-69930.46896966999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>275</v>
+      </c>
+      <c r="J27" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1343,11 +1489,19 @@
         <v>-68764.62226967</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>270</v>
+      </c>
+      <c r="J28" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1376,11 +1530,19 @@
         <v>-68838.62226967</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>274.8</v>
+      </c>
+      <c r="J29" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1409,11 +1571,19 @@
         <v>-68836.62226967</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1442,11 +1612,19 @@
         <v>-68671.77466967001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>272</v>
+      </c>
+      <c r="J31" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1475,11 +1653,19 @@
         <v>-68591.77466967001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>273</v>
+      </c>
+      <c r="J32" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1508,11 +1694,19 @@
         <v>-68891.32366967</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>274.9</v>
+      </c>
+      <c r="J33" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1541,11 +1735,19 @@
         <v>-69372.28766967001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>273</v>
+      </c>
+      <c r="J34" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1574,11 +1776,19 @@
         <v>-69372.28766967001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>271</v>
+      </c>
+      <c r="J35" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1607,11 +1817,19 @@
         <v>-73322.49006967001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>271</v>
+      </c>
+      <c r="J36" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1640,11 +1858,19 @@
         <v>-71010.49006967001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>270.3</v>
+      </c>
+      <c r="J37" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1673,11 +1899,19 @@
         <v>-71027.47196967</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>275.8</v>
+      </c>
+      <c r="J38" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1706,11 +1940,19 @@
         <v>-69458.06126967001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1739,11 +1981,19 @@
         <v>-65803.27156967002</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>275.9</v>
+      </c>
+      <c r="J40" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1772,11 +2022,19 @@
         <v>-48596.52696967001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>276</v>
+      </c>
+      <c r="J41" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1805,11 +2063,19 @@
         <v>-48596.52696967001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>278.9</v>
+      </c>
+      <c r="J42" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1841,8 +2107,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1874,8 +2146,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1907,8 +2185,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1940,8 +2224,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1973,8 +2263,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2003,11 +2299,19 @@
         <v>-48794.52696967001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>277</v>
+      </c>
+      <c r="J48" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2036,11 +2340,19 @@
         <v>-48794.52696967001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>277</v>
+      </c>
+      <c r="J49" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2072,8 +2384,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2105,8 +2423,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2135,11 +2459,19 @@
         <v>-48808.55006967001</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>277</v>
+      </c>
+      <c r="J52" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2171,8 +2503,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2201,11 +2539,19 @@
         <v>-48940.55006967001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>277</v>
+      </c>
+      <c r="J54" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2234,11 +2580,19 @@
         <v>-49340.55006967001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>275.9</v>
+      </c>
+      <c r="J55" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2267,11 +2621,19 @@
         <v>-49340.55006967001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>274.9</v>
+      </c>
+      <c r="J56" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2303,8 +2665,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2333,11 +2701,19 @@
         <v>-49340.55006967001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>273.5</v>
+      </c>
+      <c r="J58" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2369,8 +2745,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2399,11 +2781,19 @@
         <v>-50754.28466967001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>274.1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2435,8 +2825,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2468,8 +2864,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2501,8 +2903,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2534,8 +2942,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2564,11 +2978,19 @@
         <v>-46426.13166967002</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>272.1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2597,11 +3019,19 @@
         <v>-46569.51956967002</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>274</v>
+      </c>
+      <c r="J66" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2630,11 +3060,19 @@
         <v>-47642.67956967002</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>273</v>
+      </c>
+      <c r="J67" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2663,11 +3101,19 @@
         <v>-47642.67956967002</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>272.1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2699,8 +3145,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2732,8 +3184,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2765,8 +3223,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2798,8 +3262,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2831,8 +3301,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2864,8 +3340,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2897,8 +3379,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2930,8 +3418,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2963,8 +3457,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2996,8 +3496,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3029,8 +3535,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3062,8 +3574,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3095,8 +3613,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3128,8 +3652,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3158,11 +3688,17 @@
         <v>-36891.18256967003</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3194,8 +3730,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3227,8 +3769,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3260,8 +3808,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3293,8 +3847,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3326,8 +3886,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3359,8 +3925,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3392,8 +3964,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3425,8 +4003,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3458,8 +4042,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3491,8 +4081,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3524,8 +4120,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3557,8 +4159,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3590,8 +4198,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3623,8 +4237,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3656,8 +4276,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3689,8 +4315,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3722,8 +4354,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3755,8 +4393,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3788,8 +4432,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3821,8 +4471,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3851,11 +4507,17 @@
         <v>-22658.70716967002</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3884,11 +4546,17 @@
         <v>-22758.70716967002</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3917,11 +4585,17 @@
         <v>-22658.70716967002</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3950,11 +4624,17 @@
         <v>-23058.70716967002</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3983,11 +4663,17 @@
         <v>-20869.93326967002</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4019,8 +4705,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4052,8 +4744,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4085,8 +4783,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4118,8 +4822,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4151,8 +4861,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4184,8 +4900,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4217,8 +4939,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4250,8 +4978,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4283,8 +5017,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4316,8 +5056,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4349,8 +5095,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4379,15 +5131,23 @@
         <v>58063.68563032998</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>1.121972201352367</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1.026671675432006</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4412,7 +5172,7 @@
         <v>54386.62403032998</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4445,7 +5205,7 @@
         <v>54386.62403032998</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4478,7 +5238,7 @@
         <v>54775.62403032998</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4511,7 +5271,7 @@
         <v>54389.21943032998</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4544,7 +5304,7 @@
         <v>54389.21943032998</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4610,7 +5370,7 @@
         <v>54422.90832661997</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4643,7 +5403,7 @@
         <v>54422.90832661997</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4676,7 +5436,7 @@
         <v>54422.90832661997</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4709,7 +5469,7 @@
         <v>55981.52912661997</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4742,7 +5502,7 @@
         <v>55974.24722661997</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4775,7 +5535,7 @@
         <v>56107.71402674997</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4808,7 +5568,7 @@
         <v>56074.71402674997</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4841,7 +5601,7 @@
         <v>78430.27012674997</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4874,7 +5634,7 @@
         <v>70928.38862674996</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4907,7 +5667,7 @@
         <v>70896.38862674996</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4940,7 +5700,7 @@
         <v>71313.00442674996</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4973,7 +5733,7 @@
         <v>70313.00442674996</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5006,7 +5766,7 @@
         <v>70289.28412674996</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>

--- a/BackTest/2020-01-16 BackTest PIVX.xlsx
+++ b/BackTest/2020-01-16 BackTest PIVX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M139"/>
+  <dimension ref="A1:L139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>4775.1719</v>
       </c>
       <c r="G2" t="n">
-        <v>-32809.93519103</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>451.4119</v>
       </c>
       <c r="G3" t="n">
-        <v>-32358.52329103</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>266.2</v>
       </c>
       <c r="I3" t="n">
         <v>266.2</v>
       </c>
-      <c r="J3" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>177.719</v>
       </c>
       <c r="G4" t="n">
-        <v>-32180.80429103</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>272</v>
       </c>
       <c r="I4" t="n">
-        <v>272</v>
-      </c>
-      <c r="J4" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K4" t="inlineStr">
+        <v>266.2</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>719.4385</v>
       </c>
       <c r="G5" t="n">
-        <v>-31461.36579103</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>272.5</v>
       </c>
       <c r="I5" t="n">
-        <v>272.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K5" t="inlineStr">
+        <v>266.2</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,26 +583,23 @@
         <v>1607.3434</v>
       </c>
       <c r="G6" t="n">
-        <v>-31461.36579103</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>273</v>
       </c>
       <c r="I6" t="n">
-        <v>273</v>
-      </c>
-      <c r="J6" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K6" t="inlineStr">
+        <v>266.2</v>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -641,26 +621,23 @@
         <v>359.96692136</v>
       </c>
       <c r="G7" t="n">
-        <v>-31101.39886967</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>273</v>
       </c>
       <c r="I7" t="n">
-        <v>273</v>
-      </c>
-      <c r="J7" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -682,24 +659,21 @@
         <v>2769.5537</v>
       </c>
       <c r="G8" t="n">
-        <v>-33870.95256966999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -721,24 +695,23 @@
         <v>170</v>
       </c>
       <c r="G9" t="n">
-        <v>-33700.95256966999</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>273</v>
+      </c>
+      <c r="I9" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -760,24 +733,23 @@
         <v>490</v>
       </c>
       <c r="G10" t="n">
-        <v>-34190.95256966999</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>277</v>
+      </c>
+      <c r="I10" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -799,24 +771,21 @@
         <v>115</v>
       </c>
       <c r="G11" t="n">
-        <v>-34305.95256966999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -838,24 +807,21 @@
         <v>2166.5857</v>
       </c>
       <c r="G12" t="n">
-        <v>-36472.53826967</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -877,24 +843,23 @@
         <v>8735.8269</v>
       </c>
       <c r="G13" t="n">
-        <v>-45208.36516967</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>272.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -916,24 +881,21 @@
         <v>6761.0055</v>
       </c>
       <c r="G14" t="n">
-        <v>-51969.37066967</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -955,24 +917,21 @@
         <v>4486.8999</v>
       </c>
       <c r="G15" t="n">
-        <v>-56456.27056967</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -994,26 +953,21 @@
         <v>883.7319</v>
       </c>
       <c r="G16" t="n">
-        <v>-55572.53866967</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
         <v>266.2</v>
       </c>
-      <c r="J16" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1035,26 +989,21 @@
         <v>2162.498</v>
       </c>
       <c r="G17" t="n">
-        <v>-57735.03666967</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="J17" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1076,26 +1025,21 @@
         <v>151.186</v>
       </c>
       <c r="G18" t="n">
-        <v>-57583.85066967</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
         <v>266.2</v>
       </c>
-      <c r="J18" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1117,26 +1061,21 @@
         <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>-57581.85066967</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>271.9</v>
-      </c>
-      <c r="J19" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1158,26 +1097,21 @@
         <v>549.97</v>
       </c>
       <c r="G20" t="n">
-        <v>-58131.82066967</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>273</v>
-      </c>
-      <c r="J20" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1199,26 +1133,21 @@
         <v>2443.7142</v>
       </c>
       <c r="G21" t="n">
-        <v>-55688.10646967</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
         <v>266.2</v>
       </c>
-      <c r="J21" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1240,26 +1169,21 @@
         <v>5490.9126</v>
       </c>
       <c r="G22" t="n">
-        <v>-61179.01906967</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="J22" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1281,26 +1205,21 @@
         <v>110.3265</v>
       </c>
       <c r="G23" t="n">
-        <v>-61068.69256967</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="J23" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1322,26 +1241,21 @@
         <v>1194.964</v>
       </c>
       <c r="G24" t="n">
-        <v>-59873.72856967</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>272</v>
-      </c>
-      <c r="J24" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1363,26 +1277,21 @@
         <v>700</v>
       </c>
       <c r="G25" t="n">
-        <v>-59873.72856967</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>275</v>
-      </c>
-      <c r="J25" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1404,26 +1313,21 @@
         <v>106</v>
       </c>
       <c r="G26" t="n">
-        <v>-59873.72856967</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>275</v>
-      </c>
-      <c r="J26" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1445,26 +1349,21 @@
         <v>10056.7404</v>
       </c>
       <c r="G27" t="n">
-        <v>-69930.46896966999</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>275</v>
-      </c>
-      <c r="J27" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1486,26 +1385,21 @@
         <v>1165.8467</v>
       </c>
       <c r="G28" t="n">
-        <v>-68764.62226967</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>270</v>
-      </c>
-      <c r="J28" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1527,26 +1421,21 @@
         <v>74</v>
       </c>
       <c r="G29" t="n">
-        <v>-68838.62226967</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>274.8</v>
-      </c>
-      <c r="J29" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1568,26 +1457,21 @@
         <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>-68836.62226967</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1609,26 +1493,21 @@
         <v>164.8476</v>
       </c>
       <c r="G31" t="n">
-        <v>-68671.77466967001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>272</v>
-      </c>
-      <c r="J31" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1650,26 +1529,21 @@
         <v>80</v>
       </c>
       <c r="G32" t="n">
-        <v>-68591.77466967001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>273</v>
-      </c>
-      <c r="J32" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1691,26 +1565,21 @@
         <v>299.549</v>
       </c>
       <c r="G33" t="n">
-        <v>-68891.32366967</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>274.9</v>
-      </c>
-      <c r="J33" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1732,26 +1601,21 @@
         <v>480.964</v>
       </c>
       <c r="G34" t="n">
-        <v>-69372.28766967001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
-        <v>273</v>
-      </c>
-      <c r="J34" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1773,26 +1637,21 @@
         <v>2899.1019</v>
       </c>
       <c r="G35" t="n">
-        <v>-69372.28766967001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>271</v>
-      </c>
-      <c r="J35" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1814,26 +1673,21 @@
         <v>3950.2024</v>
       </c>
       <c r="G36" t="n">
-        <v>-73322.49006967001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>271</v>
-      </c>
-      <c r="J36" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1855,26 +1709,21 @@
         <v>2312</v>
       </c>
       <c r="G37" t="n">
-        <v>-71010.49006967001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>270.3</v>
-      </c>
-      <c r="J37" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1896,26 +1745,21 @@
         <v>16.9819</v>
       </c>
       <c r="G38" t="n">
-        <v>-71027.47196967</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>275.8</v>
-      </c>
-      <c r="J38" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1937,26 +1781,21 @@
         <v>1569.4107</v>
       </c>
       <c r="G39" t="n">
-        <v>-69458.06126967001</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1978,26 +1817,21 @@
         <v>3654.7897</v>
       </c>
       <c r="G40" t="n">
-        <v>-65803.27156967002</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>275.9</v>
-      </c>
-      <c r="J40" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2019,26 +1853,21 @@
         <v>17206.7446</v>
       </c>
       <c r="G41" t="n">
-        <v>-48596.52696967001</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
-        <v>276</v>
-      </c>
-      <c r="J41" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2060,26 +1889,21 @@
         <v>80.7505</v>
       </c>
       <c r="G42" t="n">
-        <v>-48596.52696967001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
-        <v>278.9</v>
-      </c>
-      <c r="J42" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2101,24 +1925,21 @@
         <v>728.7728</v>
       </c>
       <c r="G43" t="n">
-        <v>-48596.52696967001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2140,24 +1961,21 @@
         <v>50</v>
       </c>
       <c r="G44" t="n">
-        <v>-48596.52696967001</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2179,24 +1997,21 @@
         <v>100</v>
       </c>
       <c r="G45" t="n">
-        <v>-48596.52696967001</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2218,24 +2033,21 @@
         <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>-48594.52696967001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2257,24 +2069,21 @@
         <v>200</v>
       </c>
       <c r="G47" t="n">
-        <v>-48794.52696967001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2296,26 +2105,21 @@
         <v>214.1699</v>
       </c>
       <c r="G48" t="n">
-        <v>-48794.52696967001</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
-        <v>277</v>
-      </c>
-      <c r="J48" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2337,26 +2141,21 @@
         <v>1012.0943</v>
       </c>
       <c r="G49" t="n">
-        <v>-48794.52696967001</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
-        <v>277</v>
-      </c>
-      <c r="J49" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2378,24 +2177,21 @@
         <v>5.9769</v>
       </c>
       <c r="G50" t="n">
-        <v>-48788.55006967001</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2417,24 +2213,21 @@
         <v>20</v>
       </c>
       <c r="G51" t="n">
-        <v>-48808.55006967001</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2456,26 +2249,21 @@
         <v>233.9999</v>
       </c>
       <c r="G52" t="n">
-        <v>-48808.55006967001</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
-        <v>277</v>
-      </c>
-      <c r="J52" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2497,24 +2285,21 @@
         <v>22.5412</v>
       </c>
       <c r="G53" t="n">
-        <v>-48808.55006967001</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2536,26 +2321,21 @@
         <v>132</v>
       </c>
       <c r="G54" t="n">
-        <v>-48940.55006967001</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
-        <v>277</v>
-      </c>
-      <c r="J54" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2577,26 +2357,21 @@
         <v>400</v>
       </c>
       <c r="G55" t="n">
-        <v>-49340.55006967001</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
-        <v>275.9</v>
-      </c>
-      <c r="J55" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2618,26 +2393,21 @@
         <v>3126.8136</v>
       </c>
       <c r="G56" t="n">
-        <v>-49340.55006967001</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
-        <v>274.9</v>
-      </c>
-      <c r="J56" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2659,24 +2429,21 @@
         <v>1000</v>
       </c>
       <c r="G57" t="n">
-        <v>-50340.55006967001</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2698,26 +2465,21 @@
         <v>1000</v>
       </c>
       <c r="G58" t="n">
-        <v>-49340.55006967001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
-        <v>273.5</v>
-      </c>
-      <c r="J58" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2739,24 +2501,21 @@
         <v>396.2654</v>
       </c>
       <c r="G59" t="n">
-        <v>-48944.28466967001</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2778,26 +2537,21 @@
         <v>1810</v>
       </c>
       <c r="G60" t="n">
-        <v>-50754.28466967001</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="n">
-        <v>274.1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2819,24 +2573,21 @@
         <v>3614.153</v>
       </c>
       <c r="G61" t="n">
-        <v>-47140.13166967002</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2858,24 +2609,21 @@
         <v>4000</v>
       </c>
       <c r="G62" t="n">
-        <v>-43140.13166967002</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2897,24 +2645,21 @@
         <v>2</v>
       </c>
       <c r="G63" t="n">
-        <v>-43138.13166967002</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2936,24 +2681,21 @@
         <v>3360</v>
       </c>
       <c r="G64" t="n">
-        <v>-46498.13166967002</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2975,26 +2717,21 @@
         <v>72</v>
       </c>
       <c r="G65" t="n">
-        <v>-46426.13166967002</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="n">
-        <v>272.1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3016,26 +2753,21 @@
         <v>143.3879</v>
       </c>
       <c r="G66" t="n">
-        <v>-46569.51956967002</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="n">
-        <v>274</v>
-      </c>
-      <c r="J66" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3057,26 +2789,21 @@
         <v>1073.16</v>
       </c>
       <c r="G67" t="n">
-        <v>-47642.67956967002</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="n">
-        <v>273</v>
-      </c>
-      <c r="J67" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3098,26 +2825,21 @@
         <v>3715.463</v>
       </c>
       <c r="G68" t="n">
-        <v>-47642.67956967002</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="n">
-        <v>272.1</v>
-      </c>
-      <c r="J68" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>266.2</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3139,24 +2861,21 @@
         <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>-47632.67956967002</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3178,24 +2897,21 @@
         <v>377.2</v>
       </c>
       <c r="G70" t="n">
-        <v>-48009.87956967002</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3217,24 +2933,21 @@
         <v>93.8721</v>
       </c>
       <c r="G71" t="n">
-        <v>-47916.00746967002</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3256,24 +2969,21 @@
         <v>85.9359</v>
       </c>
       <c r="G72" t="n">
-        <v>-47916.00746967002</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3295,24 +3005,21 @@
         <v>10</v>
       </c>
       <c r="G73" t="n">
-        <v>-47906.00746967002</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3334,24 +3041,21 @@
         <v>408.9999</v>
       </c>
       <c r="G74" t="n">
-        <v>-48315.00736967002</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3373,24 +3077,21 @@
         <v>465.1229</v>
       </c>
       <c r="G75" t="n">
-        <v>-47849.88446967002</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3412,24 +3113,21 @@
         <v>3629.1464</v>
       </c>
       <c r="G76" t="n">
-        <v>-44220.73806967002</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3451,24 +3149,21 @@
         <v>136.367</v>
       </c>
       <c r="G77" t="n">
-        <v>-44084.37106967002</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3490,24 +3185,21 @@
         <v>7695.9036</v>
       </c>
       <c r="G78" t="n">
-        <v>-36388.46746967002</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3529,24 +3221,21 @@
         <v>687</v>
       </c>
       <c r="G79" t="n">
-        <v>-35701.46746967002</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3568,24 +3257,21 @@
         <v>47</v>
       </c>
       <c r="G80" t="n">
-        <v>-35748.46746967002</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3607,24 +3293,21 @@
         <v>360</v>
       </c>
       <c r="G81" t="n">
-        <v>-35388.46746967002</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3646,24 +3329,21 @@
         <v>2</v>
       </c>
       <c r="G82" t="n">
-        <v>-35386.46746967002</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3685,24 +3365,21 @@
         <v>1504.7151</v>
       </c>
       <c r="G83" t="n">
-        <v>-36891.18256967003</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3724,24 +3401,21 @@
         <v>1768.7468</v>
       </c>
       <c r="G84" t="n">
-        <v>-38659.92936967003</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3763,24 +3437,21 @@
         <v>2</v>
       </c>
       <c r="G85" t="n">
-        <v>-38657.92936967003</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3802,24 +3473,21 @@
         <v>6937.2688</v>
       </c>
       <c r="G86" t="n">
-        <v>-45595.19816967002</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3841,24 +3509,21 @@
         <v>102.403</v>
       </c>
       <c r="G87" t="n">
-        <v>-45492.79516967003</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3880,24 +3545,21 @@
         <v>109.3963</v>
       </c>
       <c r="G88" t="n">
-        <v>-45602.19146967003</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3919,24 +3581,21 @@
         <v>1415.9066</v>
       </c>
       <c r="G89" t="n">
-        <v>-44186.28486967002</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3958,24 +3617,21 @@
         <v>1800</v>
       </c>
       <c r="G90" t="n">
-        <v>-45986.28486967002</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3997,24 +3653,21 @@
         <v>444.1485</v>
       </c>
       <c r="G91" t="n">
-        <v>-45542.13636967002</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4036,24 +3689,21 @@
         <v>2</v>
       </c>
       <c r="G92" t="n">
-        <v>-45540.13636967002</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4075,24 +3725,21 @@
         <v>2</v>
       </c>
       <c r="G93" t="n">
-        <v>-45538.13636967002</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4114,24 +3761,21 @@
         <v>184.1749</v>
       </c>
       <c r="G94" t="n">
-        <v>-45353.96146967002</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4153,24 +3797,21 @@
         <v>146.1283</v>
       </c>
       <c r="G95" t="n">
-        <v>-45353.96146967002</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4192,24 +3833,21 @@
         <v>726.7728</v>
       </c>
       <c r="G96" t="n">
-        <v>-46080.73426967002</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4231,24 +3869,21 @@
         <v>7443.3366</v>
       </c>
       <c r="G97" t="n">
-        <v>-38637.39766967002</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4270,24 +3905,21 @@
         <v>12814.2797</v>
       </c>
       <c r="G98" t="n">
-        <v>-25823.11796967002</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4309,24 +3941,21 @@
         <v>4100.1337</v>
       </c>
       <c r="G99" t="n">
-        <v>-21722.98426967002</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4348,24 +3977,21 @@
         <v>1900</v>
       </c>
       <c r="G100" t="n">
-        <v>-21722.98426967002</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4387,24 +4013,21 @@
         <v>936.7229</v>
       </c>
       <c r="G101" t="n">
-        <v>-22659.70716967002</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4426,24 +4049,21 @@
         <v>63.2771</v>
       </c>
       <c r="G102" t="n">
-        <v>-22659.70716967002</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4465,24 +4085,21 @@
         <v>69</v>
       </c>
       <c r="G103" t="n">
-        <v>-22590.70716967002</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4504,24 +4121,21 @@
         <v>68</v>
       </c>
       <c r="G104" t="n">
-        <v>-22658.70716967002</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4543,24 +4157,21 @@
         <v>100</v>
       </c>
       <c r="G105" t="n">
-        <v>-22758.70716967002</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4582,24 +4193,21 @@
         <v>100</v>
       </c>
       <c r="G106" t="n">
-        <v>-22658.70716967002</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4621,24 +4229,21 @@
         <v>400</v>
       </c>
       <c r="G107" t="n">
-        <v>-23058.70716967002</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4660,24 +4265,21 @@
         <v>2188.7739</v>
       </c>
       <c r="G108" t="n">
-        <v>-20869.93326967002</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4699,24 +4301,21 @@
         <v>10242.5692</v>
       </c>
       <c r="G109" t="n">
-        <v>-10627.36406967002</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4738,24 +4337,21 @@
         <v>14046.2826</v>
       </c>
       <c r="G110" t="n">
-        <v>3418.918530329978</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4777,24 +4373,21 @@
         <v>59412.5424</v>
       </c>
       <c r="G111" t="n">
-        <v>62831.46093032998</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4816,24 +4409,21 @@
         <v>22588.6761</v>
       </c>
       <c r="G112" t="n">
-        <v>62831.46093032998</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4855,24 +4445,21 @@
         <v>156.0468</v>
       </c>
       <c r="G113" t="n">
-        <v>62831.46093032998</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4894,24 +4481,21 @@
         <v>1747.5242</v>
       </c>
       <c r="G114" t="n">
-        <v>62831.46093032998</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4933,24 +4517,21 @@
         <v>269.0591</v>
       </c>
       <c r="G115" t="n">
-        <v>62831.46093032998</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4972,24 +4553,21 @@
         <v>4020</v>
       </c>
       <c r="G116" t="n">
-        <v>66851.46093032998</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5011,24 +4589,21 @@
         <v>9465.3362</v>
       </c>
       <c r="G117" t="n">
-        <v>57386.12473032998</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5050,24 +4625,23 @@
         <v>62.9968</v>
       </c>
       <c r="G118" t="n">
-        <v>57449.12153032998</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1.121972201352367</v>
       </c>
       <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>1.026671675432006</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5089,24 +4663,15 @@
         <v>2385.2063</v>
       </c>
       <c r="G119" t="n">
-        <v>59834.32783032998</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5128,26 +4693,15 @@
         <v>1770.6422</v>
       </c>
       <c r="G120" t="n">
-        <v>58063.68563032998</v>
-      </c>
-      <c r="H120" t="n">
         <v>2</v>
       </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1.121972201352367</v>
-      </c>
-      <c r="M120" t="n">
-        <v>1.026671675432006</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5169,18 +4723,15 @@
         <v>3677.0616</v>
       </c>
       <c r="G121" t="n">
-        <v>54386.62403032998</v>
-      </c>
-      <c r="H121" t="n">
         <v>2</v>
       </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5202,18 +4753,15 @@
         <v>2446.2031</v>
       </c>
       <c r="G122" t="n">
-        <v>54386.62403032998</v>
-      </c>
-      <c r="H122" t="n">
         <v>2</v>
       </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5235,18 +4783,15 @@
         <v>389</v>
       </c>
       <c r="G123" t="n">
-        <v>54775.62403032998</v>
-      </c>
-      <c r="H123" t="n">
         <v>2</v>
       </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5268,18 +4813,15 @@
         <v>386.4046</v>
       </c>
       <c r="G124" t="n">
-        <v>54389.21943032998</v>
-      </c>
-      <c r="H124" t="n">
         <v>2</v>
       </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5301,18 +4843,15 @@
         <v>184.9024</v>
       </c>
       <c r="G125" t="n">
-        <v>54389.21943032998</v>
-      </c>
-      <c r="H125" t="n">
         <v>2</v>
       </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5334,18 +4873,15 @@
         <v>66.68889629</v>
       </c>
       <c r="G126" t="n">
-        <v>54455.90832661997</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5367,18 +4903,15 @@
         <v>33</v>
       </c>
       <c r="G127" t="n">
-        <v>54422.90832661997</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5400,18 +4933,15 @@
         <v>9.3032</v>
       </c>
       <c r="G128" t="n">
-        <v>54422.90832661997</v>
-      </c>
-      <c r="H128" t="n">
         <v>2</v>
       </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5433,18 +4963,15 @@
         <v>3.3682</v>
       </c>
       <c r="G129" t="n">
-        <v>54422.90832661997</v>
-      </c>
-      <c r="H129" t="n">
         <v>2</v>
       </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5466,18 +4993,15 @@
         <v>1558.6208</v>
       </c>
       <c r="G130" t="n">
-        <v>55981.52912661997</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5499,18 +5023,15 @@
         <v>7.2819</v>
       </c>
       <c r="G131" t="n">
-        <v>55974.24722661997</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5532,18 +5053,15 @@
         <v>133.46680013</v>
       </c>
       <c r="G132" t="n">
-        <v>56107.71402674997</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5565,18 +5083,15 @@
         <v>33</v>
       </c>
       <c r="G133" t="n">
-        <v>56074.71402674997</v>
-      </c>
-      <c r="H133" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5598,18 +5113,15 @@
         <v>22355.5561</v>
       </c>
       <c r="G134" t="n">
-        <v>78430.27012674997</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5631,18 +5143,15 @@
         <v>7501.8815</v>
       </c>
       <c r="G135" t="n">
-        <v>70928.38862674996</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5664,18 +5173,15 @@
         <v>32</v>
       </c>
       <c r="G136" t="n">
-        <v>70896.38862674996</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5697,18 +5203,15 @@
         <v>416.6158</v>
       </c>
       <c r="G137" t="n">
-        <v>71313.00442674996</v>
-      </c>
-      <c r="H137" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5730,18 +5233,15 @@
         <v>1000</v>
       </c>
       <c r="G138" t="n">
-        <v>70313.00442674996</v>
-      </c>
-      <c r="H138" t="n">
         <v>2</v>
       </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5763,18 +5263,15 @@
         <v>23.7203</v>
       </c>
       <c r="G139" t="n">
-        <v>70289.28412674996</v>
-      </c>
-      <c r="H139" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
